--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="554">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1428,9 +1429,6 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROUP</t>
   </si>
   <si>
     <t xml:space="preserve">311
@@ -2163,52 +2161,52 @@
   </sheetPr>
   <dimension ref="A1:AP179"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="AB93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G93" activeCellId="3" sqref="F156:G158 G167 G172 G93"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="AB2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="H163" activeCellId="0" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="104.546558704453"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -14254,7 +14252,7 @@
         <v>420</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="10"/>
@@ -14293,7 +14291,7 @@
         <v>310</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AP144" s="10"/>
     </row>
@@ -14312,13 +14310,13 @@
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G145" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="G145" s="9" t="s">
-        <v>424</v>
-      </c>
       <c r="H145" s="9" t="s">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="10"/>
@@ -14378,13 +14376,13 @@
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G146" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G146" s="9" t="s">
-        <v>426</v>
-      </c>
       <c r="H146" s="9" t="s">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="10"/>
@@ -14423,7 +14421,7 @@
         <v>312</v>
       </c>
       <c r="AO146" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AP146" s="10" t="n">
         <v>310</v>
@@ -14443,16 +14441,16 @@
         <v>44</v>
       </c>
       <c r="E147" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="H147" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="10"/>
@@ -14464,7 +14462,7 @@
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
       <c r="R147" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
@@ -14472,7 +14470,7 @@
       <c r="V147" s="9"/>
       <c r="W147" s="9"/>
       <c r="X147" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
@@ -14491,7 +14489,7 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AJ147" s="9"/>
       <c r="AK147" s="9"/>
@@ -14503,7 +14501,7 @@
         <v>133</v>
       </c>
       <c r="AO147" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AP147" s="10" t="n">
         <v>311</v>
@@ -14523,16 +14521,16 @@
         <v>44</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F148" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G148" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="H148" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="10" t="n">
@@ -14546,21 +14544,21 @@
         <v>285</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
       <c r="S148" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
       <c r="V148" s="9"/>
       <c r="W148" s="9"/>
       <c r="X148" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
@@ -14605,16 +14603,16 @@
         <v>44</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F149" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G149" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="H149" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>443</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="10" t="n">
@@ -14626,21 +14624,21 @@
         <v>285</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
       <c r="S149" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
       <c r="V149" s="9"/>
       <c r="W149" s="9"/>
       <c r="X149" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
@@ -14688,10 +14686,10 @@
         <v>352</v>
       </c>
       <c r="F150" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G150" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>290</v>
@@ -14709,16 +14707,16 @@
       <c r="Q150" s="9"/>
       <c r="R150" s="9"/>
       <c r="S150" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
       <c r="V150" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W150" s="9"/>
       <c r="X150" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
@@ -14737,12 +14735,12 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AJ150" s="9"/>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM150" s="10" t="n">
         <v>2</v>
@@ -14772,13 +14770,13 @@
         <v>352</v>
       </c>
       <c r="F151" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G151" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G151" s="9" t="s">
+      <c r="H151" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="10"/>
@@ -14802,7 +14800,7 @@
       <c r="V151" s="9"/>
       <c r="W151" s="9"/>
       <c r="X151" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
@@ -14821,12 +14819,12 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM151" s="10" t="n">
         <v>2</v>
@@ -14856,10 +14854,10 @@
         <v>352</v>
       </c>
       <c r="F152" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="G152" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>68</v>
@@ -14882,7 +14880,7 @@
       <c r="V152" s="9"/>
       <c r="W152" s="9"/>
       <c r="X152" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
@@ -14893,7 +14891,7 @@
         <v>69</v>
       </c>
       <c r="AE152" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF152" s="11" t="n">
         <v>0.025</v>
@@ -14905,12 +14903,12 @@
         <v>1</v>
       </c>
       <c r="AI152" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AJ152" s="9"/>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM152" s="10" t="n">
         <v>2</v>
@@ -14919,7 +14917,7 @@
         <v>138</v>
       </c>
       <c r="AO152" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AP152" s="10" t="n">
         <v>312</v>
@@ -14940,10 +14938,10 @@
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G153" s="20" t="s">
         <v>456</v>
-      </c>
-      <c r="G153" s="20" t="s">
-        <v>457</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>68</v>
@@ -14966,7 +14964,7 @@
       <c r="V153" s="9"/>
       <c r="W153" s="9"/>
       <c r="X153" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
@@ -14981,12 +14979,12 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ153" s="9"/>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM153" s="10" t="n">
         <v>3</v>
@@ -14995,7 +14993,7 @@
         <v>139</v>
       </c>
       <c r="AO153" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AP153" s="10" t="n">
         <v>138</v>
@@ -15016,10 +15014,10 @@
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="G154" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>349</v>
@@ -15031,31 +15029,31 @@
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
       <c r="M154" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="N154" s="10" t="s">
         <v>462</v>
-      </c>
-      <c r="N154" s="10" t="s">
-        <v>463</v>
       </c>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
       <c r="Q154" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R154" s="9" t="s">
         <v>76</v>
       </c>
       <c r="S154" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
       <c r="V154" s="9"/>
       <c r="W154" s="9"/>
       <c r="X154" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y154" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z154" s="9"/>
       <c r="AA154" s="10"/>
@@ -15063,18 +15061,18 @@
       <c r="AC154" s="9"/>
       <c r="AD154" s="9"/>
       <c r="AE154" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF154" s="11"/>
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AJ154" s="9"/>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM154" s="10" t="n">
         <v>4</v>
@@ -15102,10 +15100,10 @@
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G155" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="G155" s="9" t="s">
-        <v>468</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>349</v>
@@ -15117,31 +15115,31 @@
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
       <c r="M155" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="N155" s="10" t="s">
         <v>462</v>
-      </c>
-      <c r="N155" s="10" t="s">
-        <v>463</v>
       </c>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
       <c r="Q155" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R155" s="9" t="s">
         <v>76</v>
       </c>
       <c r="S155" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
       <c r="V155" s="9"/>
       <c r="W155" s="9"/>
       <c r="X155" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y155" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Z155" s="9"/>
       <c r="AA155" s="10"/>
@@ -15149,18 +15147,18 @@
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
       <c r="AE155" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF155" s="11"/>
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ155" s="9"/>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM155" s="10" t="n">
         <v>4</v>
@@ -15188,10 +15186,10 @@
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="G156" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>355</v>
@@ -15216,7 +15214,7 @@
       <c r="V156" s="9"/>
       <c r="W156" s="9"/>
       <c r="X156" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
@@ -15225,7 +15223,7 @@
       <c r="AC156" s="9"/>
       <c r="AD156" s="9"/>
       <c r="AE156" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF156" s="11"/>
       <c r="AG156" s="9" t="s">
@@ -15236,7 +15234,7 @@
       <c r="AJ156" s="9"/>
       <c r="AK156" s="9"/>
       <c r="AL156" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM156" s="10" t="n">
         <v>3</v>
@@ -15245,7 +15243,7 @@
         <v>142</v>
       </c>
       <c r="AO156" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AP156" s="10" t="n">
         <v>138</v>
@@ -15266,10 +15264,10 @@
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="G157" s="20" t="s">
         <v>473</v>
-      </c>
-      <c r="G157" s="20" t="s">
-        <v>474</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>74</v>
@@ -15281,28 +15279,28 @@
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="N157" s="10" t="s">
         <v>462</v>
-      </c>
-      <c r="N157" s="10" t="s">
-        <v>463</v>
       </c>
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
       <c r="Q157" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R157" s="9" t="s">
         <v>76</v>
       </c>
       <c r="S157" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
       <c r="V157" s="9"/>
       <c r="W157" s="9"/>
       <c r="X157" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
@@ -15319,12 +15317,12 @@
       <c r="AG157" s="9"/>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ157" s="9"/>
       <c r="AK157" s="9"/>
       <c r="AL157" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM157" s="10" t="n">
         <v>4</v>
@@ -15352,10 +15350,10 @@
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G158" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="H158" s="9" t="s">
         <v>74</v>
@@ -15367,28 +15365,28 @@
       <c r="K158" s="10"/>
       <c r="L158" s="10"/>
       <c r="M158" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="N158" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="N158" s="10" t="s">
-        <v>478</v>
       </c>
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
       <c r="Q158" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R158" s="9" t="s">
         <v>76</v>
       </c>
       <c r="S158" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
       <c r="V158" s="9"/>
       <c r="W158" s="9"/>
       <c r="X158" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
@@ -15405,12 +15403,12 @@
       <c r="AG158" s="9"/>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ158" s="9"/>
       <c r="AK158" s="9"/>
       <c r="AL158" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM158" s="10" t="n">
         <v>4</v>
@@ -15438,13 +15436,13 @@
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="G159" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="G159" s="9" t="s">
+      <c r="H159" s="20" t="s">
         <v>480</v>
-      </c>
-      <c r="H159" s="20" t="s">
-        <v>481</v>
       </c>
       <c r="I159" s="9"/>
       <c r="J159" s="10" t="n">
@@ -15456,7 +15454,7 @@
         <v>285</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
@@ -15472,7 +15470,7 @@
       <c r="V159" s="9"/>
       <c r="W159" s="9"/>
       <c r="X159" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
@@ -15487,12 +15485,12 @@
       <c r="AG159" s="9"/>
       <c r="AH159" s="9"/>
       <c r="AI159" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AJ159" s="9"/>
       <c r="AK159" s="9"/>
       <c r="AL159" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM159" s="10" t="n">
         <v>3</v>
@@ -15522,13 +15520,13 @@
         <v>352</v>
       </c>
       <c r="F160" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="G160" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="H160" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="10"/>
@@ -15536,14 +15534,14 @@
       <c r="L160" s="10"/>
       <c r="M160" s="9"/>
       <c r="N160" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
       <c r="S160" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T160" s="9"/>
       <c r="U160" s="9"/>
@@ -15567,12 +15565,12 @@
       <c r="AG160" s="9"/>
       <c r="AH160" s="9"/>
       <c r="AI160" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AJ160" s="9"/>
       <c r="AK160" s="9"/>
       <c r="AL160" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM160" s="10" t="n">
         <v>2</v>
@@ -15602,13 +15600,13 @@
         <v>352</v>
       </c>
       <c r="F161" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G161" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G161" s="9" t="s">
-        <v>487</v>
-      </c>
       <c r="H161" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="10" t="n">
@@ -15683,13 +15681,13 @@
         <v>352</v>
       </c>
       <c r="F162" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G162" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G162" s="9" t="s">
+      <c r="H162" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>490</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="10" t="n">
@@ -15703,7 +15701,7 @@
         <v>285</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
@@ -15712,7 +15710,7 @@
         <v>76</v>
       </c>
       <c r="S162" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T162" s="9"/>
       <c r="U162" s="9"/>
@@ -15728,13 +15726,13 @@
         <v>69</v>
       </c>
       <c r="AE162" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF162" s="11"/>
       <c r="AG162" s="9"/>
       <c r="AH162" s="9"/>
       <c r="AI162" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AJ162" s="9"/>
       <c r="AK162" s="9"/>
@@ -15763,13 +15761,13 @@
       <c r="D163" s="9"/>
       <c r="E163" s="21"/>
       <c r="F163" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="G163" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="G163" s="9" t="s">
-        <v>494</v>
-      </c>
       <c r="H163" s="9" t="s">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="10"/>
@@ -15829,10 +15827,10 @@
         <v>352</v>
       </c>
       <c r="F164" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G164" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>68</v>
@@ -15878,7 +15876,7 @@
         <v>149</v>
       </c>
       <c r="AO164" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AP164" s="14" t="n">
         <v>400</v>
@@ -15901,13 +15899,13 @@
         <v>352</v>
       </c>
       <c r="F165" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="G165" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="H165" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>500</v>
       </c>
       <c r="I165" s="9"/>
       <c r="J165" s="10" t="n">
@@ -15917,7 +15915,7 @@
       <c r="L165" s="10"/>
       <c r="M165" s="9"/>
       <c r="N165" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
@@ -15926,7 +15924,7 @@
         <v>76</v>
       </c>
       <c r="S165" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
@@ -15934,7 +15932,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
       <c r="Y165" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="10"/>
@@ -15983,13 +15981,13 @@
         <v>352</v>
       </c>
       <c r="F166" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="G166" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="G166" s="9" t="s">
-        <v>503</v>
-      </c>
       <c r="H166" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I166" s="9"/>
       <c r="J166" s="10" t="n">
@@ -15999,7 +15997,7 @@
       <c r="L166" s="10"/>
       <c r="M166" s="9"/>
       <c r="N166" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
@@ -16008,7 +16006,7 @@
         <v>76</v>
       </c>
       <c r="S166" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T166" s="9"/>
       <c r="U166" s="9"/>
@@ -16016,7 +16014,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z166" s="9"/>
       <c r="AA166" s="10"/>
@@ -16065,13 +16063,13 @@
         <v>352</v>
       </c>
       <c r="F167" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G167" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="G167" s="9" t="s">
-        <v>506</v>
-      </c>
       <c r="H167" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I167" s="9"/>
       <c r="J167" s="10" t="n">
@@ -16081,7 +16079,7 @@
       <c r="L167" s="10"/>
       <c r="M167" s="9"/>
       <c r="N167" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O167" s="9"/>
       <c r="P167" s="9"/>
@@ -16090,7 +16088,7 @@
         <v>76</v>
       </c>
       <c r="S167" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
@@ -16098,7 +16096,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
       <c r="Y167" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z167" s="9"/>
       <c r="AA167" s="10"/>
@@ -16145,13 +16143,13 @@
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G168" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="G168" s="9" t="s">
-        <v>509</v>
-      </c>
       <c r="H168" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="10" t="n">
@@ -16161,7 +16159,7 @@
       <c r="L168" s="10"/>
       <c r="M168" s="9"/>
       <c r="N168" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
@@ -16170,7 +16168,7 @@
         <v>76</v>
       </c>
       <c r="S168" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T168" s="9"/>
       <c r="U168" s="9"/>
@@ -16178,7 +16176,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
       <c r="Y168" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Z168" s="9"/>
       <c r="AA168" s="10"/>
@@ -16221,22 +16219,22 @@
         <v>43</v>
       </c>
       <c r="D169" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E169" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="F169" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="F169" s="21" t="s">
+      <c r="G169" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G169" s="21" t="s">
+      <c r="H169" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="H169" s="9" t="s">
+      <c r="I169" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>515</v>
       </c>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -16248,7 +16246,7 @@
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
       <c r="S169" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
@@ -16289,22 +16287,22 @@
         <v>43</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E170" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="F170" s="9" t="s">
+      <c r="G170" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="G170" s="22" t="s">
-        <v>519</v>
-      </c>
       <c r="H170" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="I170" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="I170" s="9" t="s">
-        <v>515</v>
       </c>
       <c r="J170" s="10"/>
       <c r="K170" s="10"/>
@@ -16316,7 +16314,7 @@
       <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
       <c r="S170" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
@@ -16342,7 +16340,7 @@
         <v>154</v>
       </c>
       <c r="AO170" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AP170" s="10"/>
     </row>
@@ -16357,36 +16355,36 @@
         <v>43</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E171" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="F171" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="F171" s="21" t="s">
+      <c r="G171" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="I171" s="9" t="s">
         <v>522</v>
-      </c>
-      <c r="G171" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="I171" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="J171" s="10"/>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
       <c r="M171" s="9"/>
       <c r="N171" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O171" s="9"/>
       <c r="P171" s="9"/>
       <c r="Q171" s="9"/>
       <c r="R171" s="9"/>
       <c r="S171" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
@@ -16412,7 +16410,7 @@
         <v>155</v>
       </c>
       <c r="AO171" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AP171" s="10"/>
     </row>
@@ -16427,22 +16425,22 @@
         <v>43</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E172" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="F172" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="G172" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="G172" s="21" t="s">
+      <c r="H172" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="H172" s="9" t="s">
+      <c r="I172" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="I172" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="J172" s="10"/>
       <c r="K172" s="10"/>
@@ -16454,7 +16452,7 @@
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
       <c r="S172" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
@@ -16480,7 +16478,7 @@
         <v>158</v>
       </c>
       <c r="AO172" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AP172" s="10"/>
     </row>
@@ -16495,22 +16493,22 @@
         <v>43</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E173" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F173" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="F173" s="21" t="s">
+      <c r="G173" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="G173" s="21" t="s">
+      <c r="H173" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="H173" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="I173" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
@@ -16522,7 +16520,7 @@
       <c r="Q173" s="9"/>
       <c r="R173" s="9"/>
       <c r="S173" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T173" s="9"/>
       <c r="U173" s="9"/>
@@ -16563,36 +16561,36 @@
         <v>43</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E174" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="F174" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="G174" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="G174" s="21" t="s">
+      <c r="H174" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="H174" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="I174" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="9"/>
       <c r="N174" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
       <c r="S174" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T174" s="9"/>
       <c r="U174" s="9"/>
@@ -16631,22 +16629,22 @@
         <v>43</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E175" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="F175" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F175" s="21" t="s">
+      <c r="G175" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="G175" s="21" t="s">
+      <c r="H175" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="H175" s="9" t="s">
-        <v>544</v>
-      </c>
       <c r="I175" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
@@ -16660,14 +16658,14 @@
       <c r="Q175" s="9"/>
       <c r="R175" s="9"/>
       <c r="S175" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T175" s="9"/>
       <c r="U175" s="9"/>
       <c r="V175" s="9"/>
       <c r="W175" s="9"/>
       <c r="X175" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
@@ -16680,7 +16678,7 @@
       <c r="AG175" s="9"/>
       <c r="AH175" s="9"/>
       <c r="AI175" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ175" s="9"/>
       <c r="AK175" s="9"/>
@@ -16703,38 +16701,38 @@
         <v>43</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E176" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="F176" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="G176" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="G176" s="21" t="s">
+      <c r="H176" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="H176" s="9" t="s">
-        <v>550</v>
-      </c>
       <c r="I176" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J176" s="10"/>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
       <c r="M176" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="N176" s="13" t="s">
         <v>551</v>
-      </c>
-      <c r="N176" s="13" t="s">
-        <v>552</v>
       </c>
       <c r="O176" s="9"/>
       <c r="P176" s="9"/>
       <c r="Q176" s="9"/>
       <c r="R176" s="9"/>
       <c r="S176" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T176" s="9"/>
       <c r="U176" s="9"/>
@@ -16775,38 +16773,38 @@
         <v>43</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E177" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="F177" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="F177" s="21" t="s">
+      <c r="G177" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="G177" s="21" t="s">
+      <c r="H177" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="H177" s="9" t="s">
-        <v>550</v>
-      </c>
       <c r="I177" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
       <c r="M177" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="N177" s="13" t="s">
         <v>551</v>
-      </c>
-      <c r="N177" s="13" t="s">
-        <v>552</v>
       </c>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
       <c r="Q177" s="9"/>
       <c r="R177" s="9"/>
       <c r="S177" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T177" s="9"/>
       <c r="U177" s="9"/>
@@ -16847,38 +16845,38 @@
         <v>43</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E178" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="F178" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="G178" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="G178" s="21" t="s">
+      <c r="H178" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="H178" s="9" t="s">
-        <v>550</v>
-      </c>
       <c r="I178" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J178" s="10"/>
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
       <c r="M178" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N178" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
       <c r="Q178" s="9"/>
       <c r="R178" s="9"/>
       <c r="S178" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T178" s="9"/>
       <c r="U178" s="9"/>
@@ -16919,38 +16917,38 @@
         <v>43</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E179" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="F179" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="G179" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="G179" s="21" t="s">
+      <c r="H179" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="H179" s="9" t="s">
-        <v>550</v>
-      </c>
       <c r="I179" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J179" s="10"/>
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
       <c r="M179" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N179" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
       <c r="Q179" s="9"/>
       <c r="R179" s="9"/>
       <c r="S179" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T179" s="9"/>
       <c r="U179" s="9"/>
@@ -16976,7 +16974,7 @@
         <v>166</v>
       </c>
       <c r="AO179" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AP179" s="10"/>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1912,7 +1913,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1929,6 +1930,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -1981,7 +1988,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2050,6 +2057,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2058,7 +2069,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2091,7 +2102,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2161,52 +2172,52 @@
   </sheetPr>
   <dimension ref="A1:AP179"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="AB2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H163" activeCellId="0" sqref="H163"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="R143" activeCellId="0" sqref="R143:S143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.2712550607287"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="105.51012145749"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.165991902834"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -13017,10 +13028,10 @@
       </c>
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
-      <c r="R129" s="9" t="s">
+      <c r="R129" s="17"/>
+      <c r="S129" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="S129" s="9"/>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
       <c r="V129" s="9"/>
@@ -13223,7 +13234,7 @@
         <v>120</v>
       </c>
       <c r="AO131" s="10"/>
-      <c r="AP131" s="17" t="n">
+      <c r="AP131" s="18" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13307,7 +13318,7 @@
         <v>121</v>
       </c>
       <c r="AO132" s="10"/>
-      <c r="AP132" s="17" t="n">
+      <c r="AP132" s="18" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13391,7 +13402,7 @@
         <v>122</v>
       </c>
       <c r="AO133" s="10"/>
-      <c r="AP133" s="17" t="n">
+      <c r="AP133" s="18" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13475,7 +13486,7 @@
         <v>123</v>
       </c>
       <c r="AO134" s="10"/>
-      <c r="AP134" s="17" t="n">
+      <c r="AP134" s="18" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13559,7 +13570,7 @@
         <v>124</v>
       </c>
       <c r="AO135" s="10"/>
-      <c r="AP135" s="17" t="n">
+      <c r="AP135" s="18" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13605,10 +13616,10 @@
       </c>
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
-      <c r="R136" s="9" t="s">
+      <c r="R136" s="17"/>
+      <c r="S136" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="S136" s="9"/>
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
       <c r="V136" s="9"/>
@@ -13809,7 +13820,7 @@
         <v>127</v>
       </c>
       <c r="AO138" s="10"/>
-      <c r="AP138" s="17" t="n">
+      <c r="AP138" s="18" t="n">
         <v>126</v>
       </c>
     </row>
@@ -13855,10 +13866,10 @@
       </c>
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
-      <c r="R139" s="9" t="s">
+      <c r="R139" s="17"/>
+      <c r="S139" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="S139" s="9"/>
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
       <c r="V139" s="9"/>
@@ -14059,7 +14070,7 @@
         <v>130</v>
       </c>
       <c r="AO141" s="10"/>
-      <c r="AP141" s="17" t="n">
+      <c r="AP141" s="18" t="n">
         <v>129</v>
       </c>
     </row>
@@ -14094,7 +14105,7 @@
       </c>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
-      <c r="M142" s="18" t="s">
+      <c r="M142" s="19" t="s">
         <v>414</v>
       </c>
       <c r="N142" s="10" t="n">
@@ -14143,7 +14154,7 @@
         <v>131</v>
       </c>
       <c r="AO142" s="10"/>
-      <c r="AP142" s="17" t="n">
+      <c r="AP142" s="18" t="n">
         <v>129</v>
       </c>
     </row>
@@ -14189,10 +14200,10 @@
       </c>
       <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
-      <c r="R143" s="9" t="s">
+      <c r="R143" s="17"/>
+      <c r="S143" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="S143" s="9"/>
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
       <c r="V143" s="9"/>
@@ -14775,7 +14786,7 @@
       <c r="G151" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="H151" s="19" t="s">
+      <c r="H151" s="20" t="s">
         <v>450</v>
       </c>
       <c r="I151" s="9"/>
@@ -14940,7 +14951,7 @@
       <c r="F153" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G153" s="20" t="s">
+      <c r="G153" s="21" t="s">
         <v>456</v>
       </c>
       <c r="H153" s="9" t="s">
@@ -15042,7 +15053,7 @@
       <c r="R154" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S154" s="20" t="s">
+      <c r="S154" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T154" s="9"/>
@@ -15128,7 +15139,7 @@
       <c r="R155" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S155" s="20" t="s">
+      <c r="S155" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T155" s="9"/>
@@ -15185,7 +15196,7 @@
         <v>44</v>
       </c>
       <c r="E156" s="9"/>
-      <c r="F156" s="20" t="s">
+      <c r="F156" s="21" t="s">
         <v>469</v>
       </c>
       <c r="G156" s="9" t="s">
@@ -15266,7 +15277,7 @@
       <c r="F157" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G157" s="20" t="s">
+      <c r="G157" s="21" t="s">
         <v>473</v>
       </c>
       <c r="H157" s="9" t="s">
@@ -15292,7 +15303,7 @@
       <c r="R157" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S157" s="20" t="s">
+      <c r="S157" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T157" s="9"/>
@@ -15378,7 +15389,7 @@
       <c r="R158" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S158" s="20" t="s">
+      <c r="S158" s="21" t="s">
         <v>463</v>
       </c>
       <c r="T158" s="9"/>
@@ -15441,7 +15452,7 @@
       <c r="G159" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="H159" s="20" t="s">
+      <c r="H159" s="21" t="s">
         <v>480</v>
       </c>
       <c r="I159" s="9"/>
@@ -15462,7 +15473,7 @@
       <c r="R159" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S159" s="20" t="s">
+      <c r="S159" s="21" t="s">
         <v>77</v>
       </c>
       <c r="T159" s="9"/>
@@ -15519,7 +15530,7 @@
       <c r="E160" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F160" s="20" t="s">
+      <c r="F160" s="21" t="s">
         <v>482</v>
       </c>
       <c r="G160" s="9" t="s">
@@ -15596,7 +15607,7 @@
       <c r="D161" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="22" t="s">
         <v>352</v>
       </c>
       <c r="F161" s="9" t="s">
@@ -15677,7 +15688,7 @@
       <c r="D162" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E162" s="22" t="s">
         <v>352</v>
       </c>
       <c r="F162" s="9" t="s">
@@ -15759,7 +15770,7 @@
         <v>43</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="21"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="9" t="s">
         <v>492</v>
       </c>
@@ -16221,13 +16232,13 @@
       <c r="D169" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="E169" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="F169" s="21" t="s">
+      <c r="F169" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="G169" s="21" t="s">
+      <c r="G169" s="22" t="s">
         <v>512</v>
       </c>
       <c r="H169" s="9" t="s">
@@ -16295,7 +16306,7 @@
       <c r="F170" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="G170" s="22" t="s">
+      <c r="G170" s="23" t="s">
         <v>518</v>
       </c>
       <c r="H170" s="9" t="s">
@@ -16357,13 +16368,13 @@
       <c r="D171" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E171" s="21" t="s">
+      <c r="E171" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="F171" s="21" t="s">
+      <c r="F171" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="G171" s="21" t="s">
+      <c r="G171" s="22" t="s">
         <v>494</v>
       </c>
       <c r="H171" s="9" t="s">
@@ -16427,13 +16438,13 @@
       <c r="D172" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="F172" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="G172" s="21" t="s">
+      <c r="G172" s="22" t="s">
         <v>527</v>
       </c>
       <c r="H172" s="9" t="s">
@@ -16495,13 +16506,13 @@
       <c r="D173" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="F173" s="21" t="s">
+      <c r="F173" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="G173" s="21" t="s">
+      <c r="G173" s="22" t="s">
         <v>532</v>
       </c>
       <c r="H173" s="9" t="s">
@@ -16563,13 +16574,13 @@
       <c r="D174" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E174" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="G174" s="21" t="s">
+      <c r="G174" s="22" t="s">
         <v>536</v>
       </c>
       <c r="H174" s="9" t="s">
@@ -16631,13 +16642,13 @@
       <c r="D175" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E175" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="F175" s="21" t="s">
+      <c r="F175" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="G175" s="21" t="s">
+      <c r="G175" s="22" t="s">
         <v>542</v>
       </c>
       <c r="H175" s="9" t="s">
@@ -16664,7 +16675,7 @@
       <c r="U175" s="9"/>
       <c r="V175" s="9"/>
       <c r="W175" s="9"/>
-      <c r="X175" s="23" t="s">
+      <c r="X175" s="24" t="s">
         <v>544</v>
       </c>
       <c r="Y175" s="9"/>
@@ -16703,13 +16714,13 @@
       <c r="D176" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E176" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="F176" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G176" s="21" t="s">
+      <c r="G176" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H176" s="9" t="s">
@@ -16721,7 +16732,7 @@
       <c r="J176" s="10"/>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
-      <c r="M176" s="20" t="s">
+      <c r="M176" s="21" t="s">
         <v>550</v>
       </c>
       <c r="N176" s="13" t="s">
@@ -16775,13 +16786,13 @@
       <c r="D177" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E177" s="21" t="s">
+      <c r="E177" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F177" s="21" t="s">
+      <c r="F177" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G177" s="21" t="s">
+      <c r="G177" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H177" s="9" t="s">
@@ -16793,7 +16804,7 @@
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
-      <c r="M177" s="20" t="s">
+      <c r="M177" s="21" t="s">
         <v>550</v>
       </c>
       <c r="N177" s="13" t="s">
@@ -16847,13 +16858,13 @@
       <c r="D178" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="E178" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F178" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G178" s="21" t="s">
+      <c r="G178" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H178" s="9" t="s">
@@ -16865,7 +16876,7 @@
       <c r="J178" s="10"/>
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
-      <c r="M178" s="20" t="s">
+      <c r="M178" s="21" t="s">
         <v>550</v>
       </c>
       <c r="N178" s="13" t="s">
@@ -16919,13 +16930,13 @@
       <c r="D179" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="E179" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="F179" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G179" s="21" t="s">
+      <c r="G179" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H179" s="9" t="s">
@@ -16937,7 +16948,7 @@
       <c r="J179" s="10"/>
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
-      <c r="M179" s="20" t="s">
+      <c r="M179" s="21" t="s">
         <v>550</v>
       </c>
       <c r="N179" s="13" t="s">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -5,19 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CONV_BIG_REG" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="555">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1402,16 +1404,13 @@
     <t xml:space="preserve">Ice Tea Shelf: Fuze Green Strawberry-Raspberry - 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Фьюз Лесн.ягоды - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 25</t>
@@ -1505,6 +1504,9 @@
     <t xml:space="preserve">facings TCCC/40</t>
   </si>
   <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler: Prime Position</t>
   </si>
   <si>
@@ -1514,7 +1516,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash-out</t>
+    <t xml:space="preserve">regular_checkouts_area</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -1524,6 +1526,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUMMY</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKU/Door RANGE</t>
@@ -1677,7 +1682,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Impulse Activations: Dobry Apple 0.2L with Sweet Snacks</t>
+    <t xml:space="preserve">Impulse Activations: Dobry Apple 0.2L with Sweet Snacks</t>
   </si>
   <si>
     <t xml:space="preserve">Impulse Активации: Добрый Яблоко 0.2л в сладких снеках</t>
@@ -1707,7 +1712,7 @@
     <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
-    <t xml:space="preserve"> Impulse Activations: Dobry Apple 0.3L with Bakery</t>
+    <t xml:space="preserve">Impulse Activations: Dobry Apple 0.3L with Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Impulse Активации: Добрый Яблоко 0.33л в выпечке</t>
@@ -1913,7 +1918,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1922,20 +1927,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF3300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3300"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1945,7 +1962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1958,6 +1975,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1988,7 +2012,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2061,15 +2085,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2119,7 +2151,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -2144,12 +2176,12 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2172,52 +2204,52 @@
   </sheetPr>
   <dimension ref="A1:AP179"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="AB2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R143" activeCellId="0" sqref="R143:S143"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AF39" activeCellId="0" sqref="AF39:AF124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="93.085020242915"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
@@ -5428,9 +5460,7 @@
       <c r="AE39" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AF39" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF39" s="11"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
       <c r="AI39" s="9"/>
@@ -5932,9 +5962,7 @@
       <c r="AE45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AF45" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF45" s="11"/>
       <c r="AG45" s="9"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9"/>
@@ -6350,9 +6378,7 @@
       <c r="AE50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AF50" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF50" s="11"/>
       <c r="AG50" s="9"/>
       <c r="AH50" s="9"/>
       <c r="AI50" s="9"/>
@@ -7026,9 +7052,7 @@
       <c r="AE58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AF58" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF58" s="11"/>
       <c r="AG58" s="9"/>
       <c r="AH58" s="9"/>
       <c r="AI58" s="9"/>
@@ -10276,9 +10300,7 @@
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
       <c r="AE96" s="9"/>
-      <c r="AF96" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF96" s="11"/>
       <c r="AG96" s="9"/>
       <c r="AH96" s="9"/>
       <c r="AI96" s="9"/>
@@ -10342,9 +10364,7 @@
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
       <c r="AE97" s="9"/>
-      <c r="AF97" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF97" s="11"/>
       <c r="AG97" s="9"/>
       <c r="AH97" s="9"/>
       <c r="AI97" s="9"/>
@@ -10514,9 +10534,7 @@
       <c r="AE99" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF99" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF99" s="11"/>
       <c r="AG99" s="9"/>
       <c r="AH99" s="9"/>
       <c r="AI99" s="9"/>
@@ -10598,9 +10616,7 @@
       <c r="AE100" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF100" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF100" s="11"/>
       <c r="AG100" s="9"/>
       <c r="AH100" s="9"/>
       <c r="AI100" s="9"/>
@@ -10684,9 +10700,7 @@
       <c r="AE101" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF101" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF101" s="11"/>
       <c r="AG101" s="9"/>
       <c r="AH101" s="9"/>
       <c r="AI101" s="9" t="s">
@@ -10858,9 +10872,7 @@
       <c r="AE103" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF103" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF103" s="11"/>
       <c r="AG103" s="9"/>
       <c r="AH103" s="9"/>
       <c r="AI103" s="9"/>
@@ -10944,9 +10956,7 @@
       <c r="AE104" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF104" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF104" s="11"/>
       <c r="AG104" s="9"/>
       <c r="AH104" s="9"/>
       <c r="AI104" s="9"/>
@@ -11030,9 +11040,7 @@
       <c r="AE105" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF105" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF105" s="11"/>
       <c r="AG105" s="9"/>
       <c r="AH105" s="9"/>
       <c r="AI105" s="9"/>
@@ -11116,9 +11124,7 @@
       <c r="AE106" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF106" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF106" s="11"/>
       <c r="AG106" s="9"/>
       <c r="AH106" s="9"/>
       <c r="AI106" s="9"/>
@@ -11182,9 +11188,7 @@
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
       <c r="AE107" s="9"/>
-      <c r="AF107" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF107" s="11"/>
       <c r="AG107" s="9"/>
       <c r="AH107" s="9"/>
       <c r="AI107" s="9"/>
@@ -11354,9 +11358,7 @@
       <c r="AE109" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF109" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF109" s="11"/>
       <c r="AG109" s="9"/>
       <c r="AH109" s="9"/>
       <c r="AI109" s="9"/>
@@ -11438,9 +11440,7 @@
       <c r="AE110" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF110" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF110" s="11"/>
       <c r="AG110" s="9"/>
       <c r="AH110" s="9"/>
       <c r="AI110" s="9"/>
@@ -11518,9 +11518,7 @@
       <c r="AE111" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF111" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF111" s="11"/>
       <c r="AG111" s="9"/>
       <c r="AH111" s="9"/>
       <c r="AI111" s="9"/>
@@ -11604,9 +11602,7 @@
       <c r="AE112" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF112" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF112" s="11"/>
       <c r="AG112" s="9"/>
       <c r="AH112" s="9"/>
       <c r="AI112" s="9" t="s">
@@ -11690,9 +11686,7 @@
       <c r="AE113" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF113" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF113" s="11"/>
       <c r="AG113" s="9"/>
       <c r="AH113" s="9"/>
       <c r="AI113" s="9" t="s">
@@ -11862,9 +11856,7 @@
       <c r="AE115" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF115" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF115" s="11"/>
       <c r="AG115" s="9"/>
       <c r="AH115" s="9"/>
       <c r="AI115" s="9"/>
@@ -11946,9 +11938,7 @@
       <c r="AE116" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF116" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF116" s="11"/>
       <c r="AG116" s="9"/>
       <c r="AH116" s="9"/>
       <c r="AI116" s="9"/>
@@ -12032,9 +12022,7 @@
       <c r="AE117" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF117" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF117" s="11"/>
       <c r="AG117" s="9"/>
       <c r="AH117" s="9"/>
       <c r="AI117" s="9" t="s">
@@ -12096,10 +12084,10 @@
       </c>
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
-      <c r="R118" s="9" t="s">
+      <c r="R118" s="17"/>
+      <c r="S118" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="S118" s="9"/>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
@@ -12286,9 +12274,7 @@
       <c r="AE120" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF120" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF120" s="11"/>
       <c r="AG120" s="9"/>
       <c r="AH120" s="9"/>
       <c r="AI120" s="9"/>
@@ -12372,9 +12358,7 @@
       <c r="AE121" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF121" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF121" s="11"/>
       <c r="AG121" s="9"/>
       <c r="AH121" s="9"/>
       <c r="AI121" s="9"/>
@@ -12458,9 +12442,7 @@
       <c r="AE122" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF122" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF122" s="11"/>
       <c r="AG122" s="9"/>
       <c r="AH122" s="9"/>
       <c r="AI122" s="9"/>
@@ -12544,9 +12526,7 @@
       <c r="AE123" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF123" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF123" s="11"/>
       <c r="AG123" s="9"/>
       <c r="AH123" s="9"/>
       <c r="AI123" s="9"/>
@@ -12630,9 +12610,7 @@
       <c r="AE124" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF124" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF124" s="11"/>
       <c r="AG124" s="9"/>
       <c r="AH124" s="9"/>
       <c r="AI124" s="9"/>
@@ -13028,8 +13006,8 @@
       </c>
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
-      <c r="R129" s="17"/>
-      <c r="S129" s="17" t="s">
+      <c r="R129" s="18"/>
+      <c r="S129" s="18" t="s">
         <v>287</v>
       </c>
       <c r="T129" s="9"/>
@@ -13234,7 +13212,7 @@
         <v>120</v>
       </c>
       <c r="AO131" s="10"/>
-      <c r="AP131" s="18" t="n">
+      <c r="AP131" s="19" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13318,7 +13296,7 @@
         <v>121</v>
       </c>
       <c r="AO132" s="10"/>
-      <c r="AP132" s="18" t="n">
+      <c r="AP132" s="19" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13402,7 +13380,7 @@
         <v>122</v>
       </c>
       <c r="AO133" s="10"/>
-      <c r="AP133" s="18" t="n">
+      <c r="AP133" s="19" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13486,7 +13464,7 @@
         <v>123</v>
       </c>
       <c r="AO134" s="10"/>
-      <c r="AP134" s="18" t="n">
+      <c r="AP134" s="19" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13570,7 +13548,7 @@
         <v>124</v>
       </c>
       <c r="AO135" s="10"/>
-      <c r="AP135" s="18" t="n">
+      <c r="AP135" s="19" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13616,8 +13594,8 @@
       </c>
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17" t="s">
+      <c r="R136" s="18"/>
+      <c r="S136" s="18" t="s">
         <v>287</v>
       </c>
       <c r="T136" s="9"/>
@@ -13820,7 +13798,7 @@
         <v>127</v>
       </c>
       <c r="AO138" s="10"/>
-      <c r="AP138" s="18" t="n">
+      <c r="AP138" s="19" t="n">
         <v>126</v>
       </c>
     </row>
@@ -13866,8 +13844,8 @@
       </c>
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17" t="s">
+      <c r="R139" s="18"/>
+      <c r="S139" s="18" t="s">
         <v>287</v>
       </c>
       <c r="T139" s="9"/>
@@ -14070,7 +14048,7 @@
         <v>130</v>
       </c>
       <c r="AO141" s="10"/>
-      <c r="AP141" s="18" t="n">
+      <c r="AP141" s="19" t="n">
         <v>129</v>
       </c>
     </row>
@@ -14090,26 +14068,26 @@
       <c r="E142" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="H142" s="8" t="s">
+      <c r="H142" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8" t="n">
+      <c r="I142" s="9"/>
+      <c r="J142" s="10" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
-      <c r="M142" s="19" t="s">
-        <v>414</v>
+      <c r="M142" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="N142" s="10" t="n">
-        <v>5440189318</v>
+        <v>5440233509</v>
       </c>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
@@ -14154,7 +14132,7 @@
         <v>131</v>
       </c>
       <c r="AO142" s="10"/>
-      <c r="AP142" s="18" t="n">
+      <c r="AP142" s="19" t="n">
         <v>129</v>
       </c>
     </row>
@@ -14172,13 +14150,13 @@
         <v>44</v>
       </c>
       <c r="E143" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="G143" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>349</v>
@@ -14193,15 +14171,15 @@
         <v>285</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="17" t="s">
+      <c r="R143" s="18"/>
+      <c r="S143" s="18" t="s">
         <v>287</v>
       </c>
       <c r="T143" s="9"/>
@@ -14257,10 +14235,10 @@
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="G144" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>44</v>
@@ -14302,7 +14280,7 @@
         <v>310</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP144" s="10"/>
     </row>
@@ -14321,10 +14299,10 @@
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G145" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>44</v>
@@ -14387,10 +14365,10 @@
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="G146" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>425</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>44</v>
@@ -14432,7 +14410,7 @@
         <v>312</v>
       </c>
       <c r="AO146" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AP146" s="10" t="n">
         <v>310</v>
@@ -14452,16 +14430,16 @@
         <v>44</v>
       </c>
       <c r="E147" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="H147" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="10"/>
@@ -14473,7 +14451,7 @@
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
       <c r="R147" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
@@ -14481,7 +14459,7 @@
       <c r="V147" s="9"/>
       <c r="W147" s="9"/>
       <c r="X147" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
@@ -14500,7 +14478,7 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AJ147" s="9"/>
       <c r="AK147" s="9"/>
@@ -14512,7 +14490,7 @@
         <v>133</v>
       </c>
       <c r="AO147" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AP147" s="10" t="n">
         <v>311</v>
@@ -14532,16 +14510,16 @@
         <v>44</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F148" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G148" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="H148" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="10" t="n">
@@ -14555,21 +14533,21 @@
         <v>285</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
       <c r="S148" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
       <c r="V148" s="9"/>
       <c r="W148" s="9"/>
       <c r="X148" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
@@ -14614,16 +14592,16 @@
         <v>44</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F149" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G149" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="H149" s="9" t="s">
         <v>441</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>442</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="10" t="n">
@@ -14635,21 +14613,21 @@
         <v>285</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
       <c r="S149" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
       <c r="V149" s="9"/>
       <c r="W149" s="9"/>
-      <c r="X149" s="9" t="s">
-        <v>432</v>
+      <c r="X149" s="20" t="s">
+        <v>442</v>
       </c>
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
@@ -14722,12 +14700,12 @@
       </c>
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
-      <c r="V150" s="9" t="s">
+      <c r="V150" s="21" t="s">
         <v>446</v>
       </c>
       <c r="W150" s="9"/>
       <c r="X150" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
@@ -14751,7 +14729,7 @@
       <c r="AJ150" s="9"/>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM150" s="10" t="n">
         <v>2</v>
@@ -14786,10 +14764,12 @@
       <c r="G151" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="H151" s="20" t="s">
+      <c r="H151" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="I151" s="9"/>
+      <c r="I151" s="22" t="s">
+        <v>451</v>
+      </c>
       <c r="J151" s="10"/>
       <c r="K151" s="10" t="n">
         <v>1</v>
@@ -14811,7 +14791,7 @@
       <c r="V151" s="9"/>
       <c r="W151" s="9"/>
       <c r="X151" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
@@ -14835,7 +14815,7 @@
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM151" s="10" t="n">
         <v>2</v>
@@ -14865,10 +14845,10 @@
         <v>352</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>68</v>
@@ -14891,7 +14871,7 @@
       <c r="V152" s="9"/>
       <c r="W152" s="9"/>
       <c r="X152" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
@@ -14902,7 +14882,7 @@
         <v>69</v>
       </c>
       <c r="AE152" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF152" s="11" t="n">
         <v>0.025</v>
@@ -14919,7 +14899,7 @@
       <c r="AJ152" s="9"/>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM152" s="10" t="n">
         <v>2</v>
@@ -14928,7 +14908,7 @@
         <v>138</v>
       </c>
       <c r="AO152" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AP152" s="10" t="n">
         <v>312</v>
@@ -14949,10 +14929,10 @@
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="G153" s="21" t="s">
         <v>456</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>457</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>68</v>
@@ -14975,7 +14955,7 @@
       <c r="V153" s="9"/>
       <c r="W153" s="9"/>
       <c r="X153" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
@@ -14990,12 +14970,12 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AJ153" s="9"/>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM153" s="10" t="n">
         <v>3</v>
@@ -15004,7 +14984,7 @@
         <v>139</v>
       </c>
       <c r="AO153" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP153" s="10" t="n">
         <v>138</v>
@@ -15025,10 +15005,10 @@
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>349</v>
@@ -15040,31 +15020,31 @@
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
       <c r="M154" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N154" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
       <c r="Q154" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R154" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S154" s="21" t="s">
-        <v>463</v>
+      <c r="S154" s="23" t="s">
+        <v>464</v>
       </c>
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
       <c r="V154" s="9"/>
       <c r="W154" s="9"/>
       <c r="X154" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y154" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z154" s="9"/>
       <c r="AA154" s="10"/>
@@ -15072,18 +15052,18 @@
       <c r="AC154" s="9"/>
       <c r="AD154" s="9"/>
       <c r="AE154" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF154" s="11"/>
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ154" s="9"/>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM154" s="10" t="n">
         <v>4</v>
@@ -15111,10 +15091,10 @@
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>349</v>
@@ -15126,31 +15106,31 @@
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
       <c r="M155" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
       <c r="Q155" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R155" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S155" s="21" t="s">
-        <v>463</v>
+      <c r="S155" s="23" t="s">
+        <v>464</v>
       </c>
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
       <c r="V155" s="9"/>
       <c r="W155" s="9"/>
       <c r="X155" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y155" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z155" s="9"/>
       <c r="AA155" s="10"/>
@@ -15158,18 +15138,18 @@
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
       <c r="AE155" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF155" s="11"/>
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AJ155" s="9"/>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM155" s="10" t="n">
         <v>4</v>
@@ -15196,11 +15176,11 @@
         <v>44</v>
       </c>
       <c r="E156" s="9"/>
-      <c r="F156" s="21" t="s">
-        <v>469</v>
+      <c r="F156" s="23" t="s">
+        <v>470</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>355</v>
@@ -15225,7 +15205,7 @@
       <c r="V156" s="9"/>
       <c r="W156" s="9"/>
       <c r="X156" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
@@ -15234,7 +15214,7 @@
       <c r="AC156" s="9"/>
       <c r="AD156" s="9"/>
       <c r="AE156" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF156" s="11"/>
       <c r="AG156" s="9" t="s">
@@ -15245,7 +15225,7 @@
       <c r="AJ156" s="9"/>
       <c r="AK156" s="9"/>
       <c r="AL156" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM156" s="10" t="n">
         <v>3</v>
@@ -15254,7 +15234,7 @@
         <v>142</v>
       </c>
       <c r="AO156" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AP156" s="10" t="n">
         <v>138</v>
@@ -15275,10 +15255,10 @@
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G157" s="21" t="s">
         <v>473</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>474</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>74</v>
@@ -15290,28 +15270,28 @@
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
       <c r="Q157" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R157" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S157" s="21" t="s">
-        <v>463</v>
+      <c r="S157" s="23" t="s">
+        <v>464</v>
       </c>
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
       <c r="V157" s="9"/>
       <c r="W157" s="9"/>
       <c r="X157" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
@@ -15328,12 +15308,12 @@
       <c r="AG157" s="9"/>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AJ157" s="9"/>
       <c r="AK157" s="9"/>
       <c r="AL157" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM157" s="10" t="n">
         <v>4</v>
@@ -15361,10 +15341,10 @@
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H158" s="9" t="s">
         <v>74</v>
@@ -15376,28 +15356,28 @@
       <c r="K158" s="10"/>
       <c r="L158" s="10"/>
       <c r="M158" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
       <c r="Q158" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="R158" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S158" s="21" t="s">
-        <v>463</v>
+      <c r="S158" s="23" t="s">
+        <v>464</v>
       </c>
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
       <c r="V158" s="9"/>
       <c r="W158" s="9"/>
       <c r="X158" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
@@ -15414,12 +15394,12 @@
       <c r="AG158" s="9"/>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AJ158" s="9"/>
       <c r="AK158" s="9"/>
       <c r="AL158" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM158" s="10" t="n">
         <v>4</v>
@@ -15447,15 +15427,17 @@
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="H159" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="I159" s="9"/>
+      <c r="H159" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="I159" s="23" t="s">
+        <v>481</v>
+      </c>
       <c r="J159" s="10" t="n">
         <v>2</v>
       </c>
@@ -15465,7 +15447,7 @@
         <v>285</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
@@ -15473,7 +15455,7 @@
       <c r="R159" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S159" s="21" t="s">
+      <c r="S159" s="23" t="s">
         <v>77</v>
       </c>
       <c r="T159" s="9"/>
@@ -15481,7 +15463,7 @@
       <c r="V159" s="9"/>
       <c r="W159" s="9"/>
       <c r="X159" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
@@ -15496,12 +15478,12 @@
       <c r="AG159" s="9"/>
       <c r="AH159" s="9"/>
       <c r="AI159" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ159" s="9"/>
       <c r="AK159" s="9"/>
       <c r="AL159" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM159" s="10" t="n">
         <v>3</v>
@@ -15530,14 +15512,14 @@
       <c r="E160" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F160" s="21" t="s">
-        <v>482</v>
+      <c r="F160" s="23" t="s">
+        <v>483</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="10"/>
@@ -15545,20 +15527,22 @@
       <c r="L160" s="10"/>
       <c r="M160" s="9"/>
       <c r="N160" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
       <c r="S160" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T160" s="9"/>
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
       <c r="W160" s="9"/>
-      <c r="X160" s="9"/>
+      <c r="X160" s="9" t="s">
+        <v>431</v>
+      </c>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="10"/>
@@ -15581,7 +15565,7 @@
       <c r="AJ160" s="9"/>
       <c r="AK160" s="9"/>
       <c r="AL160" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM160" s="10" t="n">
         <v>2</v>
@@ -15607,17 +15591,17 @@
       <c r="D161" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E161" s="22" t="s">
+      <c r="E161" s="24" t="s">
         <v>352</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="10" t="n">
@@ -15625,11 +15609,8 @@
       </c>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
-      <c r="M161" s="9" t="e">
-        <f aca="false">+AM161:AP161</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N161" s="10"/>
+      <c r="M161" s="0"/>
+      <c r="N161" s="9"/>
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
       <c r="Q161" s="9"/>
@@ -15640,8 +15621,10 @@
       <c r="T161" s="9"/>
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
-      <c r="W161" s="9"/>
-      <c r="X161" s="9"/>
+      <c r="W161" s="0"/>
+      <c r="X161" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="10"/>
@@ -15688,17 +15671,17 @@
       <c r="D162" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E162" s="22" t="s">
+      <c r="E162" s="24" t="s">
         <v>352</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="10" t="n">
@@ -15712,7 +15695,7 @@
         <v>285</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
@@ -15721,13 +15704,15 @@
         <v>76</v>
       </c>
       <c r="S162" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T162" s="9"/>
       <c r="U162" s="9"/>
       <c r="V162" s="9"/>
-      <c r="W162" s="9"/>
-      <c r="X162" s="9"/>
+      <c r="W162" s="0"/>
+      <c r="X162" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="10"/>
@@ -15737,13 +15722,13 @@
         <v>69</v>
       </c>
       <c r="AE162" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF162" s="11"/>
       <c r="AG162" s="9"/>
       <c r="AH162" s="9"/>
       <c r="AI162" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AJ162" s="9"/>
       <c r="AK162" s="9"/>
@@ -15770,12 +15755,12 @@
         <v>43</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="22"/>
+      <c r="E163" s="24"/>
       <c r="F163" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>44</v>
@@ -15838,10 +15823,10 @@
         <v>352</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>68</v>
@@ -15887,7 +15872,7 @@
         <v>149</v>
       </c>
       <c r="AO164" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AP164" s="14" t="n">
         <v>400</v>
@@ -15910,13 +15895,13 @@
         <v>352</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I165" s="9"/>
       <c r="J165" s="10" t="n">
@@ -15926,7 +15911,7 @@
       <c r="L165" s="10"/>
       <c r="M165" s="9"/>
       <c r="N165" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
@@ -15943,7 +15928,7 @@
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
       <c r="Y165" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="10"/>
@@ -15992,13 +15977,13 @@
         <v>352</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I166" s="9"/>
       <c r="J166" s="10" t="n">
@@ -16008,7 +15993,7 @@
       <c r="L166" s="10"/>
       <c r="M166" s="9"/>
       <c r="N166" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
@@ -16025,7 +16010,7 @@
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z166" s="9"/>
       <c r="AA166" s="10"/>
@@ -16074,13 +16059,13 @@
         <v>352</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I167" s="9"/>
       <c r="J167" s="10" t="n">
@@ -16090,7 +16075,7 @@
       <c r="L167" s="10"/>
       <c r="M167" s="9"/>
       <c r="N167" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O167" s="9"/>
       <c r="P167" s="9"/>
@@ -16107,7 +16092,7 @@
       <c r="W167" s="9"/>
       <c r="X167" s="9"/>
       <c r="Y167" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z167" s="9"/>
       <c r="AA167" s="10"/>
@@ -16154,13 +16139,13 @@
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="10" t="n">
@@ -16170,7 +16155,7 @@
       <c r="L168" s="10"/>
       <c r="M168" s="9"/>
       <c r="N168" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
@@ -16187,7 +16172,7 @@
       <c r="W168" s="9"/>
       <c r="X168" s="9"/>
       <c r="Y168" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z168" s="9"/>
       <c r="AA168" s="10"/>
@@ -16230,22 +16215,22 @@
         <v>43</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E169" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="F169" s="22" t="s">
+      <c r="E169" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="G169" s="22" t="s">
+      <c r="F169" s="24" t="s">
         <v>512</v>
       </c>
+      <c r="G169" s="24" t="s">
+        <v>513</v>
+      </c>
       <c r="H169" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -16257,7 +16242,7 @@
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
       <c r="S169" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
@@ -16298,22 +16283,22 @@
         <v>43</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="G170" s="23" t="s">
         <v>518</v>
       </c>
+      <c r="G170" s="25" t="s">
+        <v>519</v>
+      </c>
       <c r="H170" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J170" s="10"/>
       <c r="K170" s="10"/>
@@ -16325,7 +16310,7 @@
       <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
       <c r="S170" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
@@ -16351,7 +16336,7 @@
         <v>154</v>
       </c>
       <c r="AO170" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AP170" s="10"/>
     </row>
@@ -16366,36 +16351,36 @@
         <v>43</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E171" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="F171" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E171" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="G171" s="22" t="s">
-        <v>494</v>
+      <c r="F171" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="G171" s="24" t="s">
+        <v>495</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J171" s="10"/>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
       <c r="M171" s="9"/>
       <c r="N171" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O171" s="9"/>
       <c r="P171" s="9"/>
       <c r="Q171" s="9"/>
       <c r="R171" s="9"/>
       <c r="S171" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
@@ -16421,7 +16406,7 @@
         <v>155</v>
       </c>
       <c r="AO171" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AP171" s="10"/>
     </row>
@@ -16436,22 +16421,22 @@
         <v>43</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E172" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="F172" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E172" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="G172" s="22" t="s">
+      <c r="F172" s="24" t="s">
         <v>527</v>
       </c>
+      <c r="G172" s="24" t="s">
+        <v>528</v>
+      </c>
       <c r="H172" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J172" s="10"/>
       <c r="K172" s="10"/>
@@ -16463,7 +16448,7 @@
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
       <c r="S172" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
@@ -16489,7 +16474,7 @@
         <v>158</v>
       </c>
       <c r="AO172" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AP172" s="10"/>
     </row>
@@ -16504,22 +16489,22 @@
         <v>43</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E173" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="G173" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="I173" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="F173" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="G173" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="H173" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
@@ -16531,7 +16516,7 @@
       <c r="Q173" s="9"/>
       <c r="R173" s="9"/>
       <c r="S173" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T173" s="9"/>
       <c r="U173" s="9"/>
@@ -16572,36 +16557,36 @@
         <v>43</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E174" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="F174" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E174" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="G174" s="22" t="s">
+      <c r="F174" s="24" t="s">
         <v>536</v>
       </c>
+      <c r="G174" s="24" t="s">
+        <v>537</v>
+      </c>
       <c r="H174" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="9"/>
       <c r="N174" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
       <c r="S174" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T174" s="9"/>
       <c r="U174" s="9"/>
@@ -16640,22 +16625,22 @@
         <v>43</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E175" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="F175" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E175" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="G175" s="22" t="s">
+      <c r="F175" s="24" t="s">
         <v>542</v>
       </c>
+      <c r="G175" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="H175" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
@@ -16669,14 +16654,14 @@
       <c r="Q175" s="9"/>
       <c r="R175" s="9"/>
       <c r="S175" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T175" s="9"/>
       <c r="U175" s="9"/>
       <c r="V175" s="9"/>
       <c r="W175" s="9"/>
-      <c r="X175" s="24" t="s">
-        <v>544</v>
+      <c r="X175" s="26" t="s">
+        <v>545</v>
       </c>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
@@ -16689,7 +16674,7 @@
       <c r="AG175" s="9"/>
       <c r="AH175" s="9"/>
       <c r="AI175" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AJ175" s="9"/>
       <c r="AK175" s="9"/>
@@ -16712,38 +16697,38 @@
         <v>43</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E176" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="F176" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E176" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="F176" s="24" t="s">
         <v>548</v>
       </c>
+      <c r="G176" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="H176" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J176" s="10"/>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
-      <c r="M176" s="21" t="s">
-        <v>550</v>
+      <c r="M176" s="23" t="s">
+        <v>551</v>
       </c>
       <c r="N176" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O176" s="9"/>
       <c r="P176" s="9"/>
       <c r="Q176" s="9"/>
       <c r="R176" s="9"/>
       <c r="S176" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T176" s="9"/>
       <c r="U176" s="9"/>
@@ -16784,38 +16769,38 @@
         <v>43</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E177" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="F177" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E177" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G177" s="22" t="s">
+      <c r="F177" s="24" t="s">
         <v>548</v>
       </c>
+      <c r="G177" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="H177" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
-      <c r="M177" s="21" t="s">
-        <v>550</v>
+      <c r="M177" s="23" t="s">
+        <v>551</v>
       </c>
       <c r="N177" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
       <c r="Q177" s="9"/>
       <c r="R177" s="9"/>
       <c r="S177" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T177" s="9"/>
       <c r="U177" s="9"/>
@@ -16856,38 +16841,38 @@
         <v>43</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="F178" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E178" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G178" s="22" t="s">
+      <c r="F178" s="24" t="s">
         <v>548</v>
       </c>
+      <c r="G178" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="H178" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J178" s="10"/>
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
-      <c r="M178" s="21" t="s">
-        <v>550</v>
+      <c r="M178" s="23" t="s">
+        <v>551</v>
       </c>
       <c r="N178" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
       <c r="Q178" s="9"/>
       <c r="R178" s="9"/>
       <c r="S178" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T178" s="9"/>
       <c r="U178" s="9"/>
@@ -16928,38 +16913,38 @@
         <v>43</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="F179" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E179" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="G179" s="22" t="s">
+      <c r="F179" s="24" t="s">
         <v>548</v>
       </c>
+      <c r="G179" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="H179" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J179" s="10"/>
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
-      <c r="M179" s="21" t="s">
-        <v>550</v>
+      <c r="M179" s="23" t="s">
+        <v>551</v>
       </c>
       <c r="N179" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
       <c r="Q179" s="9"/>
       <c r="R179" s="9"/>
       <c r="S179" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T179" s="9"/>
       <c r="U179" s="9"/>
@@ -16985,7 +16970,7 @@
         <v>166</v>
       </c>
       <c r="AO179" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AP179" s="10"/>
     </row>
@@ -16993,7 +16978,7 @@
   <autoFilter ref="A1:AP179"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AP$179</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="559">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
@@ -652,7 +652,7 @@
     <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus- 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
@@ -661,7 +661,7 @@
     <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
@@ -679,10 +679,13 @@
     <t xml:space="preserve">5449000189332, 5449000235770</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus- 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5440193155, 5449000259479</t>
   </si>
   <si>
     <t xml:space="preserve">Juice (JNSD) Availability</t>
@@ -1405,7 +1408,7 @@
     <t xml:space="preserve">Ice Tea Shelf: Фьюз Зеленый Клубника-Малина - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry-Hibiscus- 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Tea Shelf: Фьюз Лесн.ягоды - 1л</t>
@@ -1526,10 +1529,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU/Door RANGE</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
@@ -1559,10 +1559,10 @@
 141</t>
   </si>
   <si>
-    <t xml:space="preserve">Min 50% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 50% кока-кола</t>
+    <t xml:space="preserve">Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% кока-кола</t>
   </si>
   <si>
     <t xml:space="preserve">Barnd: Coca-Cola</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3 </t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2- 3 полке</t>
@@ -1601,13 +1601,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Coca - Cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU min 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
@@ -1929,8 +1929,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1960,7 +1960,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2088,11 +2088,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2111,6 +2107,10 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2149,7 +2149,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2160,7 +2160,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2195,59 +2195,59 @@
   </sheetPr>
   <dimension ref="A1:AP179"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="H176" activeCellId="0" sqref="H176"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="65.4493927125506"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="65.9838056680162"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>176</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>177</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>178</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>179</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>180</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>181</v>
       </c>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="AP7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="AP8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>5</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>6</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>7</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>8</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>9</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>10</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>11</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>12</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>13</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>14</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>15</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>16</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>17</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>18</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>19</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>20</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>21</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>22</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>23</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>24</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>25</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>26</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>27</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>28</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>29</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>30</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>31</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>32</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>33</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>34</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>35</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>36</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>37</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>38</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>39</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>40</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>41</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>42</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>43</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>44</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>45</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>46</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>47</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>48</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>49</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>50</v>
       </c>
@@ -6939,8 +6939,8 @@
       <c r="M57" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="N57" s="9" t="n">
-        <v>5440193155</v>
+      <c r="N57" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
@@ -6991,7 +6991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>51</v>
       </c>
@@ -7008,10 +7008,10 @@
         <v>133</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>68</v>
@@ -7057,13 +7057,13 @@
         <v>50</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP58" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>52</v>
       </c>
@@ -7080,10 +7080,10 @@
         <v>133</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>74</v>
@@ -7095,7 +7095,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N59" s="9" t="n">
         <v>4607042434877</v>
@@ -7149,7 +7149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>53</v>
       </c>
@@ -7166,10 +7166,10 @@
         <v>133</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>74</v>
@@ -7181,7 +7181,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N60" s="9" t="n">
         <v>4607042434891</v>
@@ -7235,7 +7235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>54</v>
       </c>
@@ -7252,10 +7252,10 @@
         <v>133</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>74</v>
@@ -7267,7 +7267,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N61" s="9" t="n">
         <v>4607042438738</v>
@@ -7321,7 +7321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>55</v>
       </c>
@@ -7338,10 +7338,10 @@
         <v>133</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>74</v>
@@ -7353,7 +7353,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N62" s="9" t="n">
         <v>4607042438950</v>
@@ -7407,7 +7407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>56</v>
       </c>
@@ -7424,10 +7424,10 @@
         <v>133</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>74</v>
@@ -7439,7 +7439,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N63" s="9" t="n">
         <v>4607042434884</v>
@@ -7493,7 +7493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>57</v>
       </c>
@@ -7510,10 +7510,10 @@
         <v>133</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>74</v>
@@ -7525,7 +7525,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N64" s="9" t="n">
         <v>4607042431388</v>
@@ -7579,7 +7579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>58</v>
       </c>
@@ -7596,10 +7596,10 @@
         <v>133</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>74</v>
@@ -7611,7 +7611,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N65" s="9" t="n">
         <v>4607042431333</v>
@@ -7665,7 +7665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>59</v>
       </c>
@@ -7682,10 +7682,10 @@
         <v>133</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>74</v>
@@ -7697,7 +7697,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N66" s="9" t="n">
         <v>4607042438776</v>
@@ -7751,7 +7751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>60</v>
       </c>
@@ -7768,10 +7768,10 @@
         <v>133</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>74</v>
@@ -7783,7 +7783,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N67" s="9" t="n">
         <v>4607042431371</v>
@@ -7837,7 +7837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>61</v>
       </c>
@@ -7854,10 +7854,10 @@
         <v>133</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>74</v>
@@ -7869,7 +7869,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N68" s="9" t="n">
         <v>4607174577787</v>
@@ -7923,7 +7923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
         <v>62</v>
       </c>
@@ -7940,10 +7940,10 @@
         <v>133</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>74</v>
@@ -7955,7 +7955,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N69" s="9" t="n">
         <v>4607042430619</v>
@@ -8009,7 +8009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
         <v>63</v>
       </c>
@@ -8026,10 +8026,10 @@
         <v>133</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>74</v>
@@ -8041,7 +8041,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N70" s="9" t="n">
         <v>4607042430565</v>
@@ -8095,7 +8095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>64</v>
       </c>
@@ -8112,10 +8112,10 @@
         <v>133</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>74</v>
@@ -8127,7 +8127,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N71" s="9" t="n">
         <v>4607174579309</v>
@@ -8181,7 +8181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
         <v>65</v>
       </c>
@@ -8198,10 +8198,10 @@
         <v>133</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>74</v>
@@ -8213,7 +8213,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N72" s="9" t="n">
         <v>4607174579286</v>
@@ -8267,7 +8267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
         <v>66</v>
       </c>
@@ -8284,10 +8284,10 @@
         <v>133</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>74</v>
@@ -8299,7 +8299,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N73" s="9" t="n">
         <v>4607174577794</v>
@@ -8353,7 +8353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
         <v>67</v>
       </c>
@@ -8370,10 +8370,10 @@
         <v>133</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>74</v>
@@ -8385,7 +8385,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N74" s="9" t="n">
         <v>4607042439155</v>
@@ -8439,7 +8439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
         <v>68</v>
       </c>
@@ -8456,10 +8456,10 @@
         <v>133</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>74</v>
@@ -8471,7 +8471,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N75" s="9" t="n">
         <v>4607042439216</v>
@@ -8525,7 +8525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
         <v>69</v>
       </c>
@@ -8542,10 +8542,10 @@
         <v>133</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>74</v>
@@ -8557,7 +8557,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N76" s="9" t="n">
         <v>4607042439223</v>
@@ -8611,7 +8611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>70</v>
       </c>
@@ -8628,10 +8628,10 @@
         <v>133</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>74</v>
@@ -8643,7 +8643,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N77" s="9" t="n">
         <v>4675421239</v>
@@ -8697,7 +8697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>71</v>
       </c>
@@ -8714,10 +8714,10 @@
         <v>133</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>74</v>
@@ -8729,7 +8729,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N78" s="9" t="n">
         <v>4675421178</v>
@@ -8783,7 +8783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>72</v>
       </c>
@@ -8800,10 +8800,10 @@
         <v>133</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>74</v>
@@ -8815,7 +8815,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N79" s="9" t="n">
         <v>4675421536</v>
@@ -8869,7 +8869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>73</v>
       </c>
@@ -8886,10 +8886,10 @@
         <v>133</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>74</v>
@@ -8901,7 +8901,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N80" s="9" t="n">
         <v>4675421574</v>
@@ -8955,7 +8955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>74</v>
       </c>
@@ -8972,10 +8972,10 @@
         <v>133</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>74</v>
@@ -8987,7 +8987,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N81" s="9" t="n">
         <v>4675420287</v>
@@ -9041,7 +9041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>75</v>
       </c>
@@ -9058,10 +9058,10 @@
         <v>133</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>74</v>
@@ -9073,7 +9073,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N82" s="9" t="n">
         <v>4675420980</v>
@@ -9127,7 +9127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>76</v>
       </c>
@@ -9144,10 +9144,10 @@
         <v>133</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>74</v>
@@ -9159,7 +9159,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N83" s="9" t="n">
         <v>4675421970</v>
@@ -9213,7 +9213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>77</v>
       </c>
@@ -9230,10 +9230,10 @@
         <v>133</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>74</v>
@@ -9245,7 +9245,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N84" s="9" t="n">
         <v>4675421932</v>
@@ -9299,7 +9299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>78</v>
       </c>
@@ -9316,10 +9316,10 @@
         <v>133</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>74</v>
@@ -9331,7 +9331,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N85" s="9" t="n">
         <v>11111111</v>
@@ -9385,7 +9385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
         <v>79</v>
       </c>
@@ -9402,10 +9402,10 @@
         <v>133</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>74</v>
@@ -9417,7 +9417,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N86" s="14" t="n">
         <v>4675421192</v>
@@ -9471,7 +9471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
         <v>80</v>
       </c>
@@ -9488,10 +9488,10 @@
         <v>133</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>74</v>
@@ -9503,7 +9503,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N87" s="9" t="n">
         <v>4675421550</v>
@@ -9557,7 +9557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
         <v>81</v>
       </c>
@@ -9574,10 +9574,10 @@
         <v>133</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>74</v>
@@ -9589,7 +9589,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N88" s="9" t="n">
         <v>1111</v>
@@ -9643,7 +9643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
         <v>82</v>
       </c>
@@ -9660,10 +9660,10 @@
         <v>133</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>74</v>
@@ -9675,7 +9675,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N89" s="9" t="n">
         <v>1111</v>
@@ -9729,7 +9729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
         <v>83</v>
       </c>
@@ -9746,10 +9746,10 @@
         <v>133</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>74</v>
@@ -9761,7 +9761,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N90" s="9" t="n">
         <v>4607042438998</v>
@@ -9815,7 +9815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
         <v>84</v>
       </c>
@@ -9832,10 +9832,10 @@
         <v>133</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>74</v>
@@ -9847,7 +9847,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N91" s="9" t="n">
         <v>4607174577145</v>
@@ -9901,7 +9901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
         <v>85</v>
       </c>
@@ -9918,10 +9918,10 @@
         <v>133</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>74</v>
@@ -9933,7 +9933,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N92" s="9" t="n">
         <v>1111111</v>
@@ -9987,7 +9987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
         <v>86</v>
       </c>
@@ -10004,10 +10004,10 @@
         <v>133</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>74</v>
@@ -10019,7 +10019,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N93" s="9" t="n">
         <v>4607174579729</v>
@@ -10073,7 +10073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
         <v>87</v>
       </c>
@@ -10090,10 +10090,10 @@
         <v>133</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>74</v>
@@ -10105,7 +10105,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N94" s="9" t="n">
         <v>4607042438967</v>
@@ -10159,7 +10159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
         <v>88</v>
       </c>
@@ -10176,10 +10176,10 @@
         <v>133</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>74</v>
@@ -10191,7 +10191,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N95" s="9" t="n">
         <v>4675421499</v>
@@ -10245,7 +10245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
         <v>89</v>
       </c>
@@ -10260,10 +10260,10 @@
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>44</v>
@@ -10305,11 +10305,11 @@
         <v>301</v>
       </c>
       <c r="AO96" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
         <v>90</v>
       </c>
@@ -10324,10 +10324,10 @@
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>44</v>
@@ -10369,13 +10369,13 @@
         <v>302</v>
       </c>
       <c r="AO97" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP97" s="15" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
         <v>91</v>
       </c>
@@ -10389,16 +10389,16 @@
         <v>44</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="9" t="n">
@@ -10412,7 +10412,7 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
@@ -10420,7 +10420,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="X98" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
@@ -10451,13 +10451,13 @@
         <v>88</v>
       </c>
       <c r="AO98" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP98" s="15" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
         <v>92</v>
       </c>
@@ -10471,13 +10471,13 @@
         <v>44</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>74</v>
@@ -10489,13 +10489,13 @@
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
@@ -10503,14 +10503,14 @@
         <v>76</v>
       </c>
       <c r="S99" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
       <c r="X99" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
@@ -10543,7 +10543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
         <v>93</v>
       </c>
@@ -10557,16 +10557,16 @@
         <v>44</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="9" t="n">
@@ -10583,16 +10583,16 @@
         <v>76</v>
       </c>
       <c r="S100" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W100" s="8"/>
       <c r="X100" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
@@ -10625,7 +10625,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
         <v>94</v>
       </c>
@@ -10639,16 +10639,16 @@
         <v>44</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="9"/>
@@ -10661,7 +10661,7 @@
         <v>5440439</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
@@ -10676,7 +10676,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
       <c r="X101" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
@@ -10695,7 +10695,7 @@
       <c r="AG101" s="8"/>
       <c r="AH101" s="8"/>
       <c r="AI101" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
@@ -10711,7 +10711,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
         <v>95</v>
       </c>
@@ -10722,19 +10722,19 @@
         <v>43</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="9" t="n">
@@ -10748,7 +10748,7 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
@@ -10756,7 +10756,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
       <c r="X102" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
@@ -10777,12 +10777,12 @@
       <c r="AG102" s="8"/>
       <c r="AH102" s="8"/>
       <c r="AI102" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ102" s="8"/>
       <c r="AK102" s="8"/>
       <c r="AL102" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM102" s="9" t="n">
         <v>2</v>
@@ -10791,13 +10791,13 @@
         <v>92</v>
       </c>
       <c r="AO102" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP102" s="15" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
         <v>96</v>
       </c>
@@ -10808,16 +10808,16 @@
         <v>43</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>74</v>
@@ -10848,7 +10848,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
       <c r="X103" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
@@ -10881,7 +10881,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
         <v>97</v>
       </c>
@@ -10892,16 +10892,16 @@
         <v>43</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>74</v>
@@ -10932,7 +10932,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
       <c r="X104" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
@@ -10965,7 +10965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
         <v>98</v>
       </c>
@@ -10976,16 +10976,16 @@
         <v>43</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>74</v>
@@ -11016,7 +11016,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
@@ -11049,7 +11049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
         <v>99</v>
       </c>
@@ -11060,16 +11060,16 @@
         <v>43</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>74</v>
@@ -11081,7 +11081,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N106" s="9" t="n">
         <v>5452926</v>
@@ -11100,7 +11100,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
       <c r="X106" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
@@ -11133,7 +11133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
         <v>100</v>
       </c>
@@ -11148,10 +11148,10 @@
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>44</v>
@@ -11199,7 +11199,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
         <v>101</v>
       </c>
@@ -11213,16 +11213,16 @@
         <v>44</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="9" t="n">
@@ -11236,7 +11236,7 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
@@ -11244,7 +11244,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
       <c r="X108" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
@@ -11275,13 +11275,13 @@
         <v>97</v>
       </c>
       <c r="AO108" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP108" s="15" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
         <v>102</v>
       </c>
@@ -11295,13 +11295,13 @@
         <v>44</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>74</v>
@@ -11313,13 +11313,13 @@
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -11327,14 +11327,14 @@
         <v>76</v>
       </c>
       <c r="S109" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
       <c r="X109" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
@@ -11367,7 +11367,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
         <v>103</v>
       </c>
@@ -11381,16 +11381,16 @@
         <v>44</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="9" t="n">
@@ -11407,16 +11407,16 @@
         <v>76</v>
       </c>
       <c r="S110" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W110" s="8"/>
       <c r="X110" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
@@ -11449,7 +11449,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
         <v>104</v>
       </c>
@@ -11463,16 +11463,16 @@
         <v>44</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="9" t="n">
@@ -11494,7 +11494,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="8"/>
       <c r="X111" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
@@ -11523,13 +11523,13 @@
         <v>100</v>
       </c>
       <c r="AO111" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP111" s="9" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
         <v>105</v>
       </c>
@@ -11543,23 +11543,23 @@
         <v>44</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N112" s="9" t="n">
         <v>4607042434877</v>
@@ -11578,7 +11578,7 @@
       <c r="V112" s="8"/>
       <c r="W112" s="8"/>
       <c r="X112" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
@@ -11597,7 +11597,7 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
@@ -11613,7 +11613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
         <v>106</v>
       </c>
@@ -11627,23 +11627,23 @@
         <v>44</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
       <c r="M113" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N113" s="9" t="n">
         <v>4607042434891</v>
@@ -11662,7 +11662,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="8"/>
       <c r="X113" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
@@ -11681,7 +11681,7 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
@@ -11697,7 +11697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
         <v>107</v>
       </c>
@@ -11711,16 +11711,16 @@
         <v>44</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="9" t="n">
@@ -11734,7 +11734,7 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
@@ -11742,7 +11742,7 @@
       <c r="V114" s="8"/>
       <c r="W114" s="8"/>
       <c r="X114" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
@@ -11773,13 +11773,13 @@
         <v>103</v>
       </c>
       <c r="AO114" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP114" s="15" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="n">
         <v>108</v>
       </c>
@@ -11793,13 +11793,13 @@
         <v>44</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>74</v>
@@ -11811,13 +11811,13 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
@@ -11825,14 +11825,14 @@
         <v>76</v>
       </c>
       <c r="S115" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
       <c r="V115" s="8"/>
       <c r="W115" s="8"/>
       <c r="X115" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
@@ -11865,7 +11865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="n">
         <v>109</v>
       </c>
@@ -11879,16 +11879,16 @@
         <v>44</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="9" t="n">
@@ -11905,16 +11905,16 @@
         <v>76</v>
       </c>
       <c r="S116" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W116" s="8"/>
       <c r="X116" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
@@ -11947,7 +11947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="n">
         <v>110</v>
       </c>
@@ -11961,29 +11961,29 @@
         <v>44</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N117" s="9" t="s">
         <v>75</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
@@ -11998,12 +11998,12 @@
       <c r="V117" s="8"/>
       <c r="W117" s="8"/>
       <c r="X117" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
       <c r="AA117" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
@@ -12017,7 +12017,7 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AJ117" s="8"/>
       <c r="AK117" s="8"/>
@@ -12033,7 +12033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="n">
         <v>111</v>
       </c>
@@ -12044,19 +12044,19 @@
         <v>43</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="9" t="n">
@@ -12065,26 +12065,26 @@
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
       <c r="M118" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="16"/>
       <c r="S118" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
       <c r="V118" s="8"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
@@ -12095,7 +12095,7 @@
         <v>69</v>
       </c>
       <c r="AE118" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF118" s="10" t="n">
         <v>0.0625</v>
@@ -12117,7 +12117,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="n">
         <v>112</v>
       </c>
@@ -12128,19 +12128,19 @@
         <v>43</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="9" t="n">
@@ -12154,7 +12154,7 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -12162,14 +12162,14 @@
       <c r="V119" s="8"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="8"/>
       <c r="AC119" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD119" s="8" t="s">
         <v>69</v>
@@ -12193,13 +12193,13 @@
         <v>108</v>
       </c>
       <c r="AO119" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP119" s="15" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="n">
         <v>113</v>
       </c>
@@ -12210,16 +12210,16 @@
         <v>43</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>74</v>
@@ -12250,14 +12250,14 @@
       <c r="V120" s="8"/>
       <c r="W120" s="8"/>
       <c r="X120" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="8"/>
       <c r="AC120" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD120" s="8" t="s">
         <v>69</v>
@@ -12283,7 +12283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="n">
         <v>114</v>
       </c>
@@ -12294,16 +12294,16 @@
         <v>43</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>74</v>
@@ -12315,7 +12315,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
       <c r="M121" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N121" s="9" t="s">
         <v>75</v>
@@ -12334,14 +12334,14 @@
       <c r="V121" s="8"/>
       <c r="W121" s="8"/>
       <c r="X121" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="8"/>
       <c r="AC121" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD121" s="8" t="s">
         <v>69</v>
@@ -12367,7 +12367,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="n">
         <v>115</v>
       </c>
@@ -12378,16 +12378,16 @@
         <v>43</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>74</v>
@@ -12418,14 +12418,14 @@
       <c r="V122" s="8"/>
       <c r="W122" s="8"/>
       <c r="X122" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="8"/>
       <c r="AC122" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD122" s="8" t="s">
         <v>69</v>
@@ -12451,7 +12451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="n">
         <v>116</v>
       </c>
@@ -12462,16 +12462,16 @@
         <v>43</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>74</v>
@@ -12502,14 +12502,14 @@
       <c r="V123" s="8"/>
       <c r="W123" s="8"/>
       <c r="X123" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="8"/>
       <c r="AC123" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD123" s="8" t="s">
         <v>69</v>
@@ -12535,7 +12535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="n">
         <v>117</v>
       </c>
@@ -12546,16 +12546,16 @@
         <v>43</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>74</v>
@@ -12567,7 +12567,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
       <c r="M124" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N124" s="9" t="s">
         <v>95</v>
@@ -12586,14 +12586,14 @@
       <c r="V124" s="8"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="8"/>
       <c r="AC124" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD124" s="8" t="s">
         <v>69</v>
@@ -12619,7 +12619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="n">
         <v>118</v>
       </c>
@@ -12630,16 +12630,16 @@
         <v>43</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>74</v>
@@ -12670,14 +12670,14 @@
       <c r="V125" s="8"/>
       <c r="W125" s="8"/>
       <c r="X125" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="8"/>
       <c r="AC125" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD125" s="8" t="s">
         <v>69</v>
@@ -12703,7 +12703,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="n">
         <v>119</v>
       </c>
@@ -12714,16 +12714,16 @@
         <v>43</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>74</v>
@@ -12735,7 +12735,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N126" s="9" t="s">
         <v>92</v>
@@ -12754,14 +12754,14 @@
       <c r="V126" s="8"/>
       <c r="W126" s="8"/>
       <c r="X126" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="8"/>
       <c r="AC126" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD126" s="8" t="s">
         <v>69</v>
@@ -12787,7 +12787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="n">
         <v>120</v>
       </c>
@@ -12798,16 +12798,16 @@
         <v>43</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>74</v>
@@ -12838,14 +12838,14 @@
       <c r="V127" s="8"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="8"/>
       <c r="AC127" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD127" s="8" t="s">
         <v>69</v>
@@ -12871,7 +12871,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="n">
         <v>121</v>
       </c>
@@ -12882,16 +12882,16 @@
         <v>43</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>74</v>
@@ -12922,14 +12922,14 @@
       <c r="V128" s="8"/>
       <c r="W128" s="8"/>
       <c r="X128" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="8"/>
       <c r="AC128" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD128" s="8" t="s">
         <v>69</v>
@@ -12955,7 +12955,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="n">
         <v>122</v>
       </c>
@@ -12969,16 +12969,16 @@
         <v>44</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="9" t="n">
@@ -12987,26 +12987,26 @@
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
       <c r="M129" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="17"/>
       <c r="S129" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
       <c r="V129" s="8"/>
       <c r="W129" s="8"/>
       <c r="X129" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
@@ -13017,7 +13017,7 @@
         <v>69</v>
       </c>
       <c r="AE129" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF129" s="10" t="n">
         <v>0.0525</v>
@@ -13039,7 +13039,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="n">
         <v>123</v>
       </c>
@@ -13050,19 +13050,19 @@
         <v>43</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="9" t="n">
@@ -13076,7 +13076,7 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S130" s="8"/>
       <c r="T130" s="8"/>
@@ -13084,14 +13084,14 @@
       <c r="V130" s="8"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="8"/>
       <c r="AC130" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD130" s="8" t="s">
         <v>69</v>
@@ -13115,13 +13115,13 @@
         <v>119</v>
       </c>
       <c r="AO130" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP130" s="15" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="n">
         <v>124</v>
       </c>
@@ -13132,16 +13132,16 @@
         <v>43</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>74</v>
@@ -13153,7 +13153,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N131" s="9" t="n">
         <v>4607042434877</v>
@@ -13172,14 +13172,14 @@
       <c r="V131" s="8"/>
       <c r="W131" s="8"/>
       <c r="X131" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="8"/>
       <c r="AC131" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD131" s="8" t="s">
         <v>69</v>
@@ -13205,7 +13205,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="n">
         <v>125</v>
       </c>
@@ -13216,16 +13216,16 @@
         <v>43</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>74</v>
@@ -13237,7 +13237,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
       <c r="M132" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N132" s="9" t="n">
         <v>4607042434891</v>
@@ -13256,14 +13256,14 @@
       <c r="V132" s="8"/>
       <c r="W132" s="8"/>
       <c r="X132" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="8"/>
       <c r="AC132" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD132" s="8" t="s">
         <v>69</v>
@@ -13289,7 +13289,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="n">
         <v>126</v>
       </c>
@@ -13300,16 +13300,16 @@
         <v>43</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>74</v>
@@ -13321,7 +13321,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
       <c r="M133" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N133" s="9" t="n">
         <v>4607042438738</v>
@@ -13340,14 +13340,14 @@
       <c r="V133" s="8"/>
       <c r="W133" s="8"/>
       <c r="X133" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="8"/>
       <c r="AC133" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD133" s="8" t="s">
         <v>69</v>
@@ -13373,7 +13373,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="n">
         <v>127</v>
       </c>
@@ -13384,16 +13384,16 @@
         <v>43</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>74</v>
@@ -13405,7 +13405,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N134" s="9" t="n">
         <v>4607042439155</v>
@@ -13424,14 +13424,14 @@
       <c r="V134" s="8"/>
       <c r="W134" s="8"/>
       <c r="X134" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="8"/>
       <c r="AC134" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD134" s="8" t="s">
         <v>69</v>
@@ -13457,7 +13457,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="n">
         <v>128</v>
       </c>
@@ -13468,16 +13468,16 @@
         <v>43</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>74</v>
@@ -13489,7 +13489,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N135" s="9" t="n">
         <v>4607042439216</v>
@@ -13508,14 +13508,14 @@
       <c r="V135" s="8"/>
       <c r="W135" s="8"/>
       <c r="X135" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="8"/>
       <c r="AC135" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD135" s="8" t="s">
         <v>69</v>
@@ -13541,7 +13541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="n">
         <v>129</v>
       </c>
@@ -13555,16 +13555,16 @@
         <v>44</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="9" t="n">
@@ -13573,26 +13573,26 @@
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
       <c r="M136" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
       <c r="R136" s="17"/>
       <c r="S136" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
       <c r="V136" s="8"/>
       <c r="W136" s="8"/>
       <c r="X136" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
@@ -13603,7 +13603,7 @@
         <v>69</v>
       </c>
       <c r="AE136" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF136" s="10" t="n">
         <v>0.0125</v>
@@ -13625,7 +13625,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="n">
         <v>130</v>
       </c>
@@ -13636,19 +13636,19 @@
         <v>43</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="9" t="n">
@@ -13662,7 +13662,7 @@
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
       <c r="R137" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
@@ -13670,14 +13670,14 @@
       <c r="V137" s="8"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="8"/>
       <c r="AC137" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD137" s="8" t="s">
         <v>69</v>
@@ -13707,7 +13707,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="n">
         <v>131</v>
       </c>
@@ -13718,16 +13718,16 @@
         <v>43</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>74</v>
@@ -13758,14 +13758,14 @@
       <c r="V138" s="7"/>
       <c r="W138" s="7"/>
       <c r="X138" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="7"/>
       <c r="AC138" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD138" s="7" t="s">
         <v>69</v>
@@ -13791,7 +13791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="n">
         <v>132</v>
       </c>
@@ -13805,16 +13805,16 @@
         <v>44</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="9" t="n">
@@ -13823,26 +13823,26 @@
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
       <c r="M139" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
       <c r="R139" s="17"/>
       <c r="S139" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="8"/>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -13853,7 +13853,7 @@
         <v>69</v>
       </c>
       <c r="AE139" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF139" s="10" t="n">
         <v>0.0275</v>
@@ -13875,7 +13875,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="n">
         <v>133</v>
       </c>
@@ -13886,19 +13886,19 @@
         <v>43</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="9" t="n">
@@ -13912,7 +13912,7 @@
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S140" s="8"/>
       <c r="T140" s="8"/>
@@ -13920,14 +13920,14 @@
       <c r="V140" s="8"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="8"/>
       <c r="AC140" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD140" s="8" t="s">
         <v>69</v>
@@ -13951,13 +13951,13 @@
         <v>129</v>
       </c>
       <c r="AO140" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP140" s="15" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="n">
         <v>134</v>
       </c>
@@ -13968,16 +13968,16 @@
         <v>43</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>74</v>
@@ -14008,14 +14008,14 @@
       <c r="V141" s="7"/>
       <c r="W141" s="7"/>
       <c r="X141" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="7"/>
       <c r="AC141" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD141" s="7" t="s">
         <v>69</v>
@@ -14041,7 +14041,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="n">
         <v>135</v>
       </c>
@@ -14052,16 +14052,16 @@
         <v>43</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>74</v>
@@ -14092,14 +14092,14 @@
       <c r="V142" s="7"/>
       <c r="W142" s="7"/>
       <c r="X142" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="7"/>
       <c r="AC142" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD142" s="7" t="s">
         <v>69</v>
@@ -14125,7 +14125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="n">
         <v>136</v>
       </c>
@@ -14139,16 +14139,16 @@
         <v>44</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="9" t="n">
@@ -14157,26 +14157,26 @@
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
       <c r="M143" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
       <c r="R143" s="17"/>
       <c r="S143" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
       <c r="V143" s="8"/>
       <c r="W143" s="8"/>
       <c r="X143" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
@@ -14187,7 +14187,7 @@
         <v>69</v>
       </c>
       <c r="AE143" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF143" s="10" t="n">
         <v>0.035</v>
@@ -14209,7 +14209,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="n">
         <v>137</v>
       </c>
@@ -14224,10 +14224,10 @@
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>44</v>
@@ -14269,11 +14269,11 @@
         <v>310</v>
       </c>
       <c r="AO144" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="n">
         <v>138</v>
       </c>
@@ -14288,10 +14288,10 @@
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>44</v>
@@ -14339,7 +14339,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="n">
         <v>139</v>
       </c>
@@ -14354,10 +14354,10 @@
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>44</v>
@@ -14399,13 +14399,13 @@
         <v>312</v>
       </c>
       <c r="AO146" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AP146" s="9" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="n">
         <v>140</v>
       </c>
@@ -14419,16 +14419,16 @@
         <v>44</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="9"/>
@@ -14440,7 +14440,7 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
@@ -14448,7 +14448,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -14459,7 +14459,7 @@
         <v>69</v>
       </c>
       <c r="AE147" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF147" s="10" t="n">
         <v>0.14</v>
@@ -14467,7 +14467,7 @@
       <c r="AG147" s="8"/>
       <c r="AH147" s="8"/>
       <c r="AI147" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ147" s="8"/>
       <c r="AK147" s="8"/>
@@ -14479,13 +14479,13 @@
         <v>133</v>
       </c>
       <c r="AO147" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AP147" s="9" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="n">
         <v>141</v>
       </c>
@@ -14499,16 +14499,16 @@
         <v>44</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="9" t="n">
@@ -14519,24 +14519,24 @@
       </c>
       <c r="L148" s="9"/>
       <c r="M148" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
       <c r="S148" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -14567,7 +14567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="n">
         <v>142</v>
       </c>
@@ -14581,16 +14581,16 @@
         <v>44</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="9" t="n">
@@ -14599,24 +14599,24 @@
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
       <c r="M149" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
       <c r="S149" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -14647,7 +14647,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="n">
         <v>143</v>
       </c>
@@ -14661,16 +14661,16 @@
         <v>44</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="9" t="n">
@@ -14685,16 +14685,16 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
       <c r="S150" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T150" s="8"/>
       <c r="U150" s="8"/>
       <c r="V150" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W150" s="8"/>
       <c r="X150" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -14713,12 +14713,12 @@
       <c r="AG150" s="8"/>
       <c r="AH150" s="8"/>
       <c r="AI150" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AJ150" s="8"/>
       <c r="AK150" s="8"/>
       <c r="AL150" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM150" s="9" t="n">
         <v>2</v>
@@ -14731,7 +14731,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="n">
         <v>144</v>
       </c>
@@ -14745,20 +14745,18 @@
         <v>44</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="I151" s="20" t="s">
         <v>454</v>
       </c>
+      <c r="I151" s="8"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9" t="n">
         <v>1</v>
@@ -14767,20 +14765,24 @@
         <v>15</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="N151" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
-      <c r="S151" s="8"/>
+      <c r="S151" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -14791,7 +14793,7 @@
         <v>69</v>
       </c>
       <c r="AE151" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF151" s="10" t="n">
         <v>0.025</v>
@@ -14799,12 +14801,12 @@
       <c r="AG151" s="8"/>
       <c r="AH151" s="8"/>
       <c r="AI151" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AJ151" s="8"/>
       <c r="AK151" s="8"/>
       <c r="AL151" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM151" s="9" t="n">
         <v>2</v>
@@ -14817,7 +14819,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="n">
         <v>145</v>
       </c>
@@ -14831,7 +14833,7 @@
         <v>44</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>455</v>
@@ -14852,7 +14854,7 @@
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
       <c r="R152" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8"/>
@@ -14860,7 +14862,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -14883,12 +14885,12 @@
         <v>1</v>
       </c>
       <c r="AI152" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AJ152" s="8"/>
       <c r="AK152" s="8"/>
       <c r="AL152" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM152" s="9" t="n">
         <v>2</v>
@@ -14903,7 +14905,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="n">
         <v>146</v>
       </c>
@@ -14920,7 +14922,7 @@
       <c r="F153" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="G153" s="21" t="s">
+      <c r="G153" s="7" t="s">
         <v>460</v>
       </c>
       <c r="H153" s="8" t="s">
@@ -14944,7 +14946,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
@@ -14964,7 +14966,7 @@
       <c r="AJ153" s="8"/>
       <c r="AK153" s="8"/>
       <c r="AL153" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM153" s="9" t="n">
         <v>3</v>
@@ -14979,7 +14981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="n">
         <v>147</v>
       </c>
@@ -15000,7 +15002,7 @@
         <v>464</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="9" t="n">
@@ -15022,7 +15024,7 @@
       <c r="R154" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S154" s="22" t="s">
+      <c r="S154" s="21" t="s">
         <v>467</v>
       </c>
       <c r="T154" s="8"/>
@@ -15030,7 +15032,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y154" s="8" t="s">
         <v>468</v>
@@ -15052,7 +15054,7 @@
       <c r="AJ154" s="8"/>
       <c r="AK154" s="8"/>
       <c r="AL154" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM154" s="9" t="n">
         <v>4</v>
@@ -15065,7 +15067,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="n">
         <v>148</v>
       </c>
@@ -15086,7 +15088,7 @@
         <v>471</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="9" t="n">
@@ -15108,7 +15110,7 @@
       <c r="R155" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S155" s="22" t="s">
+      <c r="S155" s="21" t="s">
         <v>467</v>
       </c>
       <c r="T155" s="8"/>
@@ -15116,7 +15118,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y155" s="8" t="s">
         <v>472</v>
@@ -15138,7 +15140,7 @@
       <c r="AJ155" s="8"/>
       <c r="AK155" s="8"/>
       <c r="AL155" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM155" s="9" t="n">
         <v>4</v>
@@ -15151,7 +15153,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
         <v>149</v>
       </c>
@@ -15165,14 +15167,14 @@
         <v>44</v>
       </c>
       <c r="E156" s="8"/>
-      <c r="F156" s="21" t="s">
+      <c r="F156" s="7" t="s">
         <v>473</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>474</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="9" t="n">
@@ -15186,7 +15188,7 @@
       <c r="P156" s="8"/>
       <c r="Q156" s="8"/>
       <c r="R156" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S156" s="8"/>
       <c r="T156" s="8"/>
@@ -15194,7 +15196,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
@@ -15214,7 +15216,7 @@
       <c r="AJ156" s="8"/>
       <c r="AK156" s="8"/>
       <c r="AL156" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM156" s="9" t="n">
         <v>3</v>
@@ -15229,7 +15231,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
         <v>150</v>
       </c>
@@ -15246,7 +15248,7 @@
       <c r="F157" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="21" t="s">
+      <c r="G157" s="7" t="s">
         <v>477</v>
       </c>
       <c r="H157" s="8" t="s">
@@ -15272,7 +15274,7 @@
       <c r="R157" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S157" s="22" t="s">
+      <c r="S157" s="21" t="s">
         <v>467</v>
       </c>
       <c r="T157" s="8"/>
@@ -15280,7 +15282,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
@@ -15302,7 +15304,7 @@
       <c r="AJ157" s="8"/>
       <c r="AK157" s="8"/>
       <c r="AL157" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM157" s="9" t="n">
         <v>4</v>
@@ -15315,7 +15317,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
         <v>151</v>
       </c>
@@ -15358,7 +15360,7 @@
       <c r="R158" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S158" s="22" t="s">
+      <c r="S158" s="21" t="s">
         <v>467</v>
       </c>
       <c r="T158" s="8"/>
@@ -15366,7 +15368,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -15388,7 +15390,7 @@
       <c r="AJ158" s="8"/>
       <c r="AK158" s="8"/>
       <c r="AL158" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM158" s="9" t="n">
         <v>4</v>
@@ -15401,7 +15403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="n">
         <v>152</v>
       </c>
@@ -15422,21 +15424,19 @@
         <v>483</v>
       </c>
       <c r="H159" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="I159" s="22" t="s">
         <v>484</v>
       </c>
+      <c r="I159" s="8"/>
       <c r="J159" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
       <c r="M159" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N159" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
@@ -15444,15 +15444,15 @@
       <c r="R159" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S159" s="22" t="s">
-        <v>77</v>
+      <c r="S159" s="21" t="s">
+        <v>442</v>
       </c>
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -15472,7 +15472,7 @@
       <c r="AJ159" s="8"/>
       <c r="AK159" s="8"/>
       <c r="AL159" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM159" s="9" t="n">
         <v>3</v>
@@ -15485,7 +15485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
         <v>153</v>
       </c>
@@ -15499,9 +15499,9 @@
         <v>44</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F160" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="F160" s="21" t="s">
         <v>486</v>
       </c>
       <c r="G160" s="8" t="s">
@@ -15516,21 +15516,21 @@
       <c r="L160" s="9"/>
       <c r="M160" s="8"/>
       <c r="N160" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
       <c r="R160" s="8"/>
       <c r="S160" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="8"/>
       <c r="W160" s="8"/>
       <c r="X160" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -15541,7 +15541,7 @@
         <v>69</v>
       </c>
       <c r="AE160" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF160" s="10" t="n">
         <v>0.025</v>
@@ -15549,12 +15549,12 @@
       <c r="AG160" s="8"/>
       <c r="AH160" s="8"/>
       <c r="AI160" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AJ160" s="8"/>
       <c r="AK160" s="8"/>
       <c r="AL160" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM160" s="9" t="n">
         <v>2</v>
@@ -15567,7 +15567,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
         <v>154</v>
       </c>
@@ -15578,10 +15578,10 @@
         <v>43</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E161" s="23" t="s">
-        <v>356</v>
+        <v>302</v>
+      </c>
+      <c r="E161" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>489</v>
@@ -15590,7 +15590,7 @@
         <v>490</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="9" t="n">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
-      <c r="M161" s="24"/>
+      <c r="M161" s="23"/>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
@@ -15610,7 +15610,7 @@
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
-      <c r="W161" s="24"/>
+      <c r="W161" s="23"/>
       <c r="X161" s="19" t="s">
         <v>489</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>69</v>
       </c>
       <c r="AE161" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF161" s="10" t="n">
         <v>0.03</v>
@@ -15647,7 +15647,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
         <v>155</v>
       </c>
@@ -15658,10 +15658,10 @@
         <v>43</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>356</v>
+        <v>302</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>491</v>
@@ -15681,10 +15681,10 @@
       </c>
       <c r="L162" s="9"/>
       <c r="M162" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N162" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
@@ -15693,12 +15693,12 @@
         <v>76</v>
       </c>
       <c r="S162" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T162" s="8"/>
       <c r="U162" s="8"/>
       <c r="V162" s="8"/>
-      <c r="W162" s="24"/>
+      <c r="W162" s="23"/>
       <c r="X162" s="19" t="s">
         <v>489</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
         <v>156</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>43</v>
       </c>
       <c r="D163" s="8"/>
-      <c r="E163" s="23"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="8" t="s">
         <v>496</v>
       </c>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="AP163" s="9"/>
     </row>
-    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
         <v>157</v>
       </c>
@@ -15806,10 +15806,10 @@
         <v>43</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F164" s="8" t="s">
         <v>498</v>
@@ -15867,7 +15867,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
         <v>158</v>
       </c>
@@ -15878,10 +15878,10 @@
         <v>43</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>501</v>
@@ -15909,7 +15909,7 @@
         <v>76</v>
       </c>
       <c r="S165" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
@@ -15949,7 +15949,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="n">
         <v>159</v>
       </c>
@@ -15960,10 +15960,10 @@
         <v>43</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>505</v>
@@ -15991,7 +15991,7 @@
         <v>76</v>
       </c>
       <c r="S166" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
@@ -16031,7 +16031,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="n">
         <v>160</v>
       </c>
@@ -16042,10 +16042,10 @@
         <v>43</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>508</v>
@@ -16073,7 +16073,7 @@
         <v>76</v>
       </c>
       <c r="S167" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
@@ -16113,7 +16113,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="n">
         <v>161</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>76</v>
       </c>
       <c r="S168" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T168" s="8"/>
       <c r="U168" s="8"/>
@@ -16193,7 +16193,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="n">
         <v>162</v>
       </c>
@@ -16206,13 +16206,13 @@
       <c r="D169" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E169" s="23" t="s">
+      <c r="E169" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="F169" s="23" t="s">
+      <c r="F169" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="G169" s="23" t="s">
+      <c r="G169" s="22" t="s">
         <v>517</v>
       </c>
       <c r="H169" s="8" t="s">
@@ -16261,7 +16261,7 @@
       </c>
       <c r="AP169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="n">
         <v>163</v>
       </c>
@@ -16280,7 +16280,7 @@
       <c r="F170" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="G170" s="25" t="s">
+      <c r="G170" s="24" t="s">
         <v>523</v>
       </c>
       <c r="H170" s="8" t="s">
@@ -16329,7 +16329,7 @@
       </c>
       <c r="AP170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="n">
         <v>164</v>
       </c>
@@ -16342,13 +16342,13 @@
       <c r="D171" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="F171" s="23" t="s">
+      <c r="F171" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="G171" s="23" t="s">
+      <c r="G171" s="22" t="s">
         <v>498</v>
       </c>
       <c r="H171" s="8" t="s">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="AP171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="n">
         <v>167</v>
       </c>
@@ -16412,13 +16412,13 @@
       <c r="D172" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="F172" s="23" t="s">
+      <c r="F172" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="G172" s="23" t="s">
+      <c r="G172" s="22" t="s">
         <v>533</v>
       </c>
       <c r="H172" s="8" t="s">
@@ -16463,11 +16463,11 @@
         <v>158</v>
       </c>
       <c r="AO172" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AP172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="n">
         <v>168</v>
       </c>
@@ -16480,13 +16480,13 @@
       <c r="D173" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="F173" s="23" t="s">
+      <c r="F173" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="G173" s="23" t="s">
+      <c r="G173" s="22" t="s">
         <v>538</v>
       </c>
       <c r="H173" s="8" t="s">
@@ -16535,7 +16535,7 @@
       </c>
       <c r="AP173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="n">
         <v>169</v>
       </c>
@@ -16548,13 +16548,13 @@
       <c r="D174" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="F174" s="23" t="s">
+      <c r="F174" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="G174" s="23" t="s">
+      <c r="G174" s="22" t="s">
         <v>542</v>
       </c>
       <c r="H174" s="8" t="s">
@@ -16603,7 +16603,7 @@
       <c r="AO174" s="9"/>
       <c r="AP174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="n">
         <v>170</v>
       </c>
@@ -16616,13 +16616,13 @@
       <c r="D175" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="F175" s="23" t="s">
+      <c r="F175" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G175" s="23" t="s">
+      <c r="G175" s="22" t="s">
         <v>548</v>
       </c>
       <c r="H175" s="8" t="s">
@@ -16649,7 +16649,7 @@
       <c r="U175" s="8"/>
       <c r="V175" s="8"/>
       <c r="W175" s="8"/>
-      <c r="X175" s="21" t="s">
+      <c r="X175" s="25" t="s">
         <v>550</v>
       </c>
       <c r="Y175" s="8"/>
@@ -16675,7 +16675,7 @@
       <c r="AO175" s="9"/>
       <c r="AP175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="n">
         <v>172</v>
       </c>
@@ -16688,13 +16688,13 @@
       <c r="D176" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F176" s="23" t="s">
+      <c r="F176" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="G176" s="23" t="s">
+      <c r="G176" s="22" t="s">
         <v>554</v>
       </c>
       <c r="H176" s="8" t="s">
@@ -16706,7 +16706,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="22" t="s">
+      <c r="M176" s="21" t="s">
         <v>555</v>
       </c>
       <c r="N176" s="12" t="s">
@@ -16747,7 +16747,7 @@
       </c>
       <c r="AP176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="n">
         <v>173</v>
       </c>
@@ -16760,13 +16760,13 @@
       <c r="D177" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F177" s="23" t="s">
+      <c r="F177" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="G177" s="23" t="s">
+      <c r="G177" s="22" t="s">
         <v>554</v>
       </c>
       <c r="H177" s="8" t="s">
@@ -16778,7 +16778,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="22" t="s">
+      <c r="M177" s="21" t="s">
         <v>555</v>
       </c>
       <c r="N177" s="12" t="s">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="AP177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="n">
         <v>174</v>
       </c>
@@ -16832,13 +16832,13 @@
       <c r="D178" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F178" s="23" t="s">
+      <c r="F178" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="G178" s="23" t="s">
+      <c r="G178" s="22" t="s">
         <v>554</v>
       </c>
       <c r="H178" s="8" t="s">
@@ -16850,7 +16850,7 @@
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="22" t="s">
+      <c r="M178" s="21" t="s">
         <v>555</v>
       </c>
       <c r="N178" s="12" t="s">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="AP178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="n">
         <v>175</v>
       </c>
@@ -16904,13 +16904,13 @@
       <c r="D179" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E179" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F179" s="23" t="s">
+      <c r="F179" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="G179" s="23" t="s">
+      <c r="G179" s="22" t="s">
         <v>554</v>
       </c>
       <c r="H179" s="8" t="s">
@@ -16922,7 +16922,7 @@
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
-      <c r="M179" s="22" t="s">
+      <c r="M179" s="21" t="s">
         <v>555</v>
       </c>
       <c r="N179" s="12" t="s">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -11,8 +11,9 @@
     <sheet name="CONV_BIG_REG" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$182</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="596">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1968,12 +1969,18 @@
 167
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -1982,6 +1989,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2127,7 +2135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2284,6 +2292,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2365,60 +2377,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ181"/>
+  <dimension ref="1:182"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A182" activeCellId="0" sqref="182:182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="77.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="113.109311740891"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="19.8582995951417"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="114.080971659919"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17418,8 +17429,74 @@
       </c>
       <c r="AQ181" s="14"/>
     </row>
+    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="10" t="n">
+        <v>507</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="G182" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="I182" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="16"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10"/>
+      <c r="R182" s="10"/>
+      <c r="S182" s="10"/>
+      <c r="T182" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="U182" s="10"/>
+      <c r="V182" s="10"/>
+      <c r="W182" s="10"/>
+      <c r="X182" s="10"/>
+      <c r="Y182" s="10"/>
+      <c r="Z182" s="10"/>
+      <c r="AA182" s="10"/>
+      <c r="AB182" s="10"/>
+      <c r="AC182" s="10"/>
+      <c r="AD182" s="10"/>
+      <c r="AE182" s="39"/>
+      <c r="AF182" s="10"/>
+      <c r="AG182" s="10"/>
+      <c r="AH182" s="10"/>
+      <c r="AI182" s="10"/>
+      <c r="AJ182" s="10"/>
+      <c r="AK182" s="10"/>
+      <c r="AL182" s="10"/>
+      <c r="AM182" s="10"/>
+      <c r="AN182" s="10"/>
+      <c r="AO182" s="10" t="n">
+        <v>507</v>
+      </c>
+      <c r="AP182" s="10"/>
+      <c r="AQ182" s="10"/>
+      <c r="AMJ182" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ181"/>
+  <autoFilter ref="A1:AQ182"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -11,9 +11,8 @@
     <sheet name="CONV_BIG_REG" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$182</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="594">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1969,18 +1968,12 @@
 167
 </t>
   </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -1989,7 +1982,6 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="@"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2135,7 +2127,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2292,10 +2284,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2377,59 +2365,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:182"/>
+  <dimension ref="A1:AQ181"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A182" activeCellId="0" sqref="182:182"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.6315789473684"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="114.080971659919"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.3400809716599"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.2024291497976"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="77.668016194332"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="113.109311740891"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.6113360323887"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="19.8582995951417"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="44" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17429,74 +17418,8 @@
       </c>
       <c r="AQ181" s="14"/>
     </row>
-    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="10" t="n">
-        <v>507</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="E182" s="30"/>
-      <c r="F182" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="G182" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="I182" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="J182" s="10"/>
-      <c r="K182" s="10"/>
-      <c r="L182" s="10"/>
-      <c r="M182" s="10"/>
-      <c r="N182" s="16"/>
-      <c r="O182" s="10"/>
-      <c r="P182" s="10"/>
-      <c r="Q182" s="10"/>
-      <c r="R182" s="10"/>
-      <c r="S182" s="10"/>
-      <c r="T182" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="U182" s="10"/>
-      <c r="V182" s="10"/>
-      <c r="W182" s="10"/>
-      <c r="X182" s="10"/>
-      <c r="Y182" s="10"/>
-      <c r="Z182" s="10"/>
-      <c r="AA182" s="10"/>
-      <c r="AB182" s="10"/>
-      <c r="AC182" s="10"/>
-      <c r="AD182" s="10"/>
-      <c r="AE182" s="39"/>
-      <c r="AF182" s="10"/>
-      <c r="AG182" s="10"/>
-      <c r="AH182" s="10"/>
-      <c r="AI182" s="10"/>
-      <c r="AJ182" s="10"/>
-      <c r="AK182" s="10"/>
-      <c r="AL182" s="10"/>
-      <c r="AM182" s="10"/>
-      <c r="AN182" s="10"/>
-      <c r="AO182" s="10" t="n">
-        <v>507</v>
-      </c>
-      <c r="AP182" s="10"/>
-      <c r="AQ182" s="10"/>
-      <c r="AMJ182" s="0"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ182"/>
+  <autoFilter ref="A1:AQ181"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CONV_BIG_REG" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="596">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1968,12 +1970,18 @@
 167
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -1982,6 +1990,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2127,7 +2136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2284,6 +2293,30 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2365,60 +2398,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ181"/>
+  <dimension ref="1:182"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F181" activeCellId="0" sqref="F181:F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="77.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="113.109311740891"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="19.8582995951417"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="115.153846153846"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2618,6 +2650,7 @@
       <c r="AQ2" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
@@ -2685,6 +2718,7 @@
       <c r="AQ3" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
@@ -2752,6 +2786,7 @@
       <c r="AQ4" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
@@ -2819,6 +2854,7 @@
       <c r="AQ5" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
@@ -2886,6 +2922,7 @@
       <c r="AQ6" s="14" t="n">
         <v>506</v>
       </c>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
@@ -2951,6 +2988,7 @@
         <v>62</v>
       </c>
       <c r="AQ7" s="14"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
@@ -3016,6 +3054,7 @@
         <v>65</v>
       </c>
       <c r="AQ8" s="14"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
@@ -3089,6 +3128,7 @@
       <c r="AQ9" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
@@ -3176,6 +3216,7 @@
       <c r="AQ10" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
@@ -3263,6 +3304,7 @@
       <c r="AQ11" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
@@ -3350,6 +3392,7 @@
       <c r="AQ12" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
@@ -3437,6 +3480,7 @@
       <c r="AQ13" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
@@ -3524,6 +3568,7 @@
       <c r="AQ14" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
@@ -3611,6 +3656,7 @@
       <c r="AQ15" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
@@ -3698,6 +3744,7 @@
       <c r="AQ16" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
@@ -3785,6 +3832,7 @@
       <c r="AQ17" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
@@ -3872,6 +3920,7 @@
       <c r="AQ18" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
@@ -3959,6 +4008,7 @@
       <c r="AQ19" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
@@ -4046,6 +4096,7 @@
       <c r="AQ20" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
@@ -4133,6 +4184,7 @@
       <c r="AQ21" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
@@ -4220,6 +4272,7 @@
       <c r="AQ22" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
@@ -4307,6 +4360,7 @@
       <c r="AQ23" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
@@ -4394,6 +4448,7 @@
       <c r="AQ24" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
@@ -4481,6 +4536,7 @@
       <c r="AQ25" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
@@ -4568,6 +4624,7 @@
       <c r="AQ26" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
@@ -4655,6 +4712,7 @@
       <c r="AQ27" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="n">
@@ -4742,6 +4800,7 @@
       <c r="AQ28" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
@@ -4829,6 +4888,7 @@
       <c r="AQ29" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
@@ -4916,6 +4976,7 @@
       <c r="AQ30" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="n">
@@ -5003,6 +5064,7 @@
       <c r="AQ31" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="n">
@@ -5090,6 +5152,7 @@
       <c r="AQ32" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
@@ -5177,6 +5240,7 @@
       <c r="AQ33" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="n">
@@ -5264,6 +5328,7 @@
       <c r="AQ34" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="n">
@@ -5351,6 +5416,7 @@
       <c r="AQ35" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
@@ -5438,6 +5504,7 @@
       <c r="AQ36" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="n">
@@ -5525,6 +5592,7 @@
       <c r="AQ37" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="n">
@@ -5612,6 +5680,7 @@
       <c r="AQ38" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
@@ -5685,6 +5754,7 @@
       <c r="AQ39" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="n">
@@ -5772,6 +5842,7 @@
       <c r="AQ40" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="n">
@@ -5859,6 +5930,7 @@
       <c r="AQ41" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
@@ -5946,6 +6018,7 @@
       <c r="AQ42" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="n">
@@ -6033,6 +6106,7 @@
       <c r="AQ43" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="n">
@@ -6120,6 +6194,7 @@
       <c r="AQ44" s="14" t="n">
         <v>31</v>
       </c>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="n">
@@ -6193,6 +6268,7 @@
       <c r="AQ45" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="n">
@@ -6280,6 +6356,7 @@
       <c r="AQ46" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="n">
@@ -6367,6 +6444,7 @@
       <c r="AQ47" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
@@ -6454,6 +6532,7 @@
       <c r="AQ48" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="n">
@@ -6541,6 +6620,7 @@
       <c r="AQ49" s="14" t="n">
         <v>37</v>
       </c>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="n">
@@ -6614,6 +6694,7 @@
       <c r="AQ50" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="n">
@@ -6701,6 +6782,7 @@
       <c r="AQ51" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="n">
@@ -6788,6 +6870,7 @@
       <c r="AQ52" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="n">
@@ -6875,6 +6958,7 @@
       <c r="AQ53" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="n">
@@ -6962,6 +7046,7 @@
       <c r="AQ54" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="n">
@@ -7049,6 +7134,7 @@
       <c r="AQ55" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="n">
@@ -7136,6 +7222,7 @@
       <c r="AQ56" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="n">
@@ -7223,6 +7310,7 @@
       <c r="AQ57" s="14" t="n">
         <v>42</v>
       </c>
+      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="n">
@@ -7296,6 +7384,7 @@
       <c r="AQ58" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="n">
@@ -7383,6 +7472,7 @@
       <c r="AQ59" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="n">
@@ -7470,6 +7560,7 @@
       <c r="AQ60" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="n">
@@ -7557,6 +7648,7 @@
       <c r="AQ61" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="n">
@@ -7644,6 +7736,7 @@
       <c r="AQ62" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="n">
@@ -7731,6 +7824,7 @@
       <c r="AQ63" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="n">
@@ -7818,6 +7912,7 @@
       <c r="AQ64" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="n">
@@ -7905,6 +8000,7 @@
       <c r="AQ65" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="n">
@@ -7992,6 +8088,7 @@
       <c r="AQ66" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="n">
@@ -8079,6 +8176,7 @@
       <c r="AQ67" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="n">
@@ -8166,6 +8264,7 @@
       <c r="AQ68" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
@@ -8253,6 +8352,7 @@
       <c r="AQ69" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="n">
@@ -8340,6 +8440,7 @@
       <c r="AQ70" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="n">
@@ -8427,6 +8528,7 @@
       <c r="AQ71" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="n">
@@ -8514,6 +8616,7 @@
       <c r="AQ72" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="n">
@@ -8601,6 +8704,7 @@
       <c r="AQ73" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="n">
@@ -8688,6 +8792,7 @@
       <c r="AQ74" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
@@ -8775,6 +8880,7 @@
       <c r="AQ75" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="n">
@@ -8862,6 +8968,7 @@
       <c r="AQ76" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="n">
@@ -8949,6 +9056,7 @@
       <c r="AQ77" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="n">
@@ -9036,6 +9144,7 @@
       <c r="AQ78" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="n">
@@ -9123,6 +9232,7 @@
       <c r="AQ79" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="n">
@@ -9210,6 +9320,7 @@
       <c r="AQ80" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="n">
@@ -9297,6 +9408,7 @@
       <c r="AQ81" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="n">
@@ -9384,6 +9496,7 @@
       <c r="AQ82" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="n">
@@ -9471,6 +9584,7 @@
       <c r="AQ83" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="n">
@@ -9558,6 +9672,7 @@
       <c r="AQ84" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="n">
@@ -9645,6 +9760,7 @@
       <c r="AQ85" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="n">
@@ -9732,6 +9848,7 @@
       <c r="AQ86" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="n">
@@ -9819,6 +9936,7 @@
       <c r="AQ87" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="n">
@@ -9906,6 +10024,7 @@
       <c r="AQ88" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="n">
@@ -9993,6 +10112,7 @@
       <c r="AQ89" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="n">
@@ -10080,6 +10200,7 @@
       <c r="AQ90" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="n">
@@ -10167,6 +10288,7 @@
       <c r="AQ91" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="n">
@@ -10254,6 +10376,7 @@
       <c r="AQ92" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="n">
@@ -10343,6 +10466,7 @@
       <c r="AQ93" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="n">
@@ -10430,6 +10554,7 @@
       <c r="AQ94" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="n">
@@ -10517,6 +10642,7 @@
       <c r="AQ95" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="AMJ95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="n">
@@ -10582,6 +10708,7 @@
         <v>317</v>
       </c>
       <c r="AQ96" s="14"/>
+      <c r="AMJ96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="n">
@@ -10649,6 +10776,7 @@
       <c r="AQ97" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="n">
@@ -10730,6 +10858,7 @@
       <c r="AQ98" s="14" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="n">
@@ -10815,6 +10944,7 @@
       <c r="AQ99" s="14" t="n">
         <v>88</v>
       </c>
+      <c r="AMJ99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="n">
@@ -10896,6 +11026,7 @@
       <c r="AQ100" s="14" t="n">
         <v>88</v>
       </c>
+      <c r="AMJ100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="n">
@@ -10981,6 +11112,7 @@
       <c r="AQ101" s="14" t="n">
         <v>88</v>
       </c>
+      <c r="AMJ101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="n">
@@ -11066,6 +11198,7 @@
       <c r="AQ102" s="14" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="n">
@@ -11149,6 +11282,7 @@
       <c r="AQ103" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="n">
@@ -11232,6 +11366,7 @@
       <c r="AQ104" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="n">
@@ -11315,6 +11450,7 @@
       <c r="AQ105" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="n">
@@ -11398,6 +11534,7 @@
       <c r="AQ106" s="14" t="n">
         <v>92</v>
       </c>
+      <c r="AMJ106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="n">
@@ -11465,6 +11602,7 @@
       <c r="AQ107" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="n">
@@ -11546,6 +11684,7 @@
       <c r="AQ108" s="14" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="n">
@@ -11631,6 +11770,7 @@
       <c r="AQ109" s="14" t="n">
         <v>97</v>
       </c>
+      <c r="AMJ109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="n">
@@ -11712,6 +11852,7 @@
       <c r="AQ110" s="14" t="n">
         <v>97</v>
       </c>
+      <c r="AMJ110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="n">
@@ -11791,6 +11932,7 @@
       <c r="AQ111" s="14" t="n">
         <v>97</v>
       </c>
+      <c r="AMJ111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="n">
@@ -11874,6 +12016,7 @@
       <c r="AQ112" s="14" t="n">
         <v>100</v>
       </c>
+      <c r="AMJ112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="n">
@@ -11957,6 +12100,7 @@
       <c r="AQ113" s="14" t="n">
         <v>100</v>
       </c>
+      <c r="AMJ113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="n">
@@ -12038,6 +12182,7 @@
       <c r="AQ114" s="14" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="n">
@@ -12123,6 +12268,7 @@
       <c r="AQ115" s="14" t="n">
         <v>103</v>
       </c>
+      <c r="AMJ115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="n">
@@ -12204,6 +12350,7 @@
       <c r="AQ116" s="14" t="n">
         <v>103</v>
       </c>
+      <c r="AMJ116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="n">
@@ -12289,6 +12436,7 @@
       <c r="AQ117" s="14" t="n">
         <v>103</v>
       </c>
+      <c r="AMJ117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="n">
@@ -12374,6 +12522,7 @@
       <c r="AQ118" s="14" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="n">
@@ -12457,6 +12606,7 @@
       <c r="AQ119" s="14" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="n">
@@ -12542,6 +12692,7 @@
       <c r="AQ120" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="n">
@@ -12627,6 +12778,7 @@
       <c r="AQ121" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="n">
@@ -12712,6 +12864,7 @@
       <c r="AQ122" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="n">
@@ -12797,6 +12950,7 @@
       <c r="AQ123" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="n">
@@ -12882,6 +13036,7 @@
       <c r="AQ124" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="n">
@@ -12967,6 +13122,7 @@
       <c r="AQ125" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="n">
@@ -13052,6 +13208,7 @@
       <c r="AQ126" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="n">
@@ -13137,6 +13294,7 @@
       <c r="AQ127" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="n">
@@ -13222,6 +13380,7 @@
       <c r="AQ128" s="14" t="n">
         <v>108</v>
       </c>
+      <c r="AMJ128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="n">
@@ -13307,6 +13466,7 @@
       <c r="AQ129" s="14" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="n">
@@ -13390,6 +13550,7 @@
       <c r="AQ130" s="14" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="n">
@@ -13475,6 +13636,7 @@
       <c r="AQ131" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="n">
@@ -13560,6 +13722,7 @@
       <c r="AQ132" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="n">
@@ -13645,6 +13808,7 @@
       <c r="AQ133" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="n">
@@ -13730,6 +13894,7 @@
       <c r="AQ134" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="n">
@@ -13815,6 +13980,7 @@
       <c r="AQ135" s="25" t="n">
         <v>119</v>
       </c>
+      <c r="AMJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="n">
@@ -13900,6 +14066,7 @@
       <c r="AQ136" s="14" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="n">
@@ -13983,6 +14150,7 @@
       <c r="AQ137" s="14" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="n">
@@ -14068,6 +14236,7 @@
       <c r="AQ138" s="25" t="n">
         <v>126</v>
       </c>
+      <c r="AMJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="n">
@@ -14153,6 +14322,7 @@
       <c r="AQ139" s="14" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="n">
@@ -14236,6 +14406,7 @@
       <c r="AQ140" s="14" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="n">
@@ -14321,6 +14492,7 @@
       <c r="AQ141" s="25" t="n">
         <v>129</v>
       </c>
+      <c r="AMJ141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="n">
@@ -14406,6 +14578,7 @@
       <c r="AQ142" s="25" t="n">
         <v>129</v>
       </c>
+      <c r="AMJ142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="n">
@@ -14491,6 +14664,7 @@
       <c r="AQ143" s="14" t="n">
         <v>505</v>
       </c>
+      <c r="AMJ143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="n">
@@ -14556,6 +14730,7 @@
         <v>461</v>
       </c>
       <c r="AQ144" s="14"/>
+      <c r="AMJ144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="n">
@@ -14623,6 +14798,7 @@
       <c r="AQ145" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="n">
@@ -14690,6 +14866,7 @@
       <c r="AQ146" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="n">
@@ -14771,6 +14948,7 @@
       <c r="AQ147" s="14" t="n">
         <v>311</v>
       </c>
+      <c r="AMJ147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="n">
@@ -14854,6 +15032,7 @@
       <c r="AQ148" s="14" t="n">
         <v>133</v>
       </c>
+      <c r="AMJ148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="n">
@@ -14935,6 +15114,7 @@
       <c r="AQ149" s="14" t="n">
         <v>133</v>
       </c>
+      <c r="AMJ149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="n">
@@ -15020,6 +15200,7 @@
       <c r="AQ150" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="n">
@@ -15109,6 +15290,7 @@
       <c r="AQ151" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="n">
@@ -15192,6 +15374,7 @@
       <c r="AQ152" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="n">
@@ -15279,6 +15462,7 @@
       <c r="AQ153" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="n">
@@ -15366,6 +15550,7 @@
       <c r="AQ154" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="n">
@@ -15445,6 +15630,7 @@
       <c r="AQ155" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="n">
@@ -15532,6 +15718,7 @@
       <c r="AQ156" s="14" t="n">
         <v>142</v>
       </c>
+      <c r="AMJ156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="n">
@@ -15619,6 +15806,7 @@
       <c r="AQ157" s="14" t="n">
         <v>142</v>
       </c>
+      <c r="AMJ157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="n">
@@ -15702,6 +15890,7 @@
       <c r="AQ158" s="14" t="n">
         <v>138</v>
       </c>
+      <c r="AMJ158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="n">
@@ -15785,6 +15974,7 @@
       <c r="AQ159" s="14" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="n">
@@ -15866,6 +16056,7 @@
       <c r="AQ160" s="20" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="n">
@@ -15953,6 +16144,7 @@
       <c r="AQ161" s="14" t="n">
         <v>147</v>
       </c>
+      <c r="AMJ161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="n">
@@ -16016,6 +16208,7 @@
         <v>149</v>
       </c>
       <c r="AQ162" s="14"/>
+      <c r="AMJ162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="n">
@@ -16089,6 +16282,7 @@
       <c r="AQ163" s="20" t="n">
         <v>400</v>
       </c>
+      <c r="AMJ163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="n">
@@ -16172,6 +16366,7 @@
       <c r="AQ164" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="n">
@@ -16255,6 +16450,7 @@
       <c r="AQ165" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="n">
@@ -16338,6 +16534,7 @@
       <c r="AQ166" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="n">
@@ -16421,6 +16618,7 @@
       <c r="AQ167" s="14" t="n">
         <v>149</v>
       </c>
+      <c r="AMJ167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="n">
@@ -16490,6 +16688,7 @@
         <v>92</v>
       </c>
       <c r="AQ168" s="14"/>
+      <c r="AMJ168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="n">
@@ -16559,6 +16758,7 @@
         <v>556</v>
       </c>
       <c r="AQ169" s="14"/>
+      <c r="AMJ169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="n">
@@ -16632,6 +16832,7 @@
         <v>150</v>
       </c>
       <c r="AQ170" s="14"/>
+      <c r="AMJ170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="n">
@@ -16703,6 +16904,7 @@
         <v>151</v>
       </c>
       <c r="AQ171" s="14"/>
+      <c r="AMJ171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="n">
@@ -16774,6 +16976,7 @@
         <v>152</v>
       </c>
       <c r="AQ172" s="14"/>
+      <c r="AMJ172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="n">
@@ -16845,6 +17048,7 @@
         <v>167</v>
       </c>
       <c r="AQ173" s="14"/>
+      <c r="AMJ173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="n">
@@ -16914,6 +17118,7 @@
         <v>466</v>
       </c>
       <c r="AQ174" s="14"/>
+      <c r="AMJ174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="n">
@@ -16983,6 +17188,7 @@
         <v>147</v>
       </c>
       <c r="AQ175" s="14"/>
+      <c r="AMJ175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="n">
@@ -17054,6 +17260,7 @@
       </c>
       <c r="AP176" s="14"/>
       <c r="AQ176" s="14"/>
+      <c r="AMJ176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="n">
@@ -17125,6 +17332,7 @@
       </c>
       <c r="AP177" s="14"/>
       <c r="AQ177" s="14"/>
+      <c r="AMJ177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="n">
@@ -17198,6 +17406,7 @@
         <v>88</v>
       </c>
       <c r="AQ178" s="14"/>
+      <c r="AMJ178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="n">
@@ -17271,6 +17480,7 @@
         <v>97</v>
       </c>
       <c r="AQ179" s="14"/>
+      <c r="AMJ179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="n">
@@ -17344,6 +17554,7 @@
         <v>103</v>
       </c>
       <c r="AQ180" s="14"/>
+      <c r="AMJ180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="n">
@@ -17417,6 +17628,73 @@
         <v>593</v>
       </c>
       <c r="AQ181" s="14"/>
+      <c r="AMJ181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="39" t="n">
+        <v>521</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D182" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="E182" s="40"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="H182" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="I182" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="J182" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="K182" s="41"/>
+      <c r="L182" s="41"/>
+      <c r="M182" s="39"/>
+      <c r="N182" s="42"/>
+      <c r="O182" s="39"/>
+      <c r="P182" s="39"/>
+      <c r="Q182" s="39"/>
+      <c r="R182" s="39"/>
+      <c r="S182" s="39"/>
+      <c r="T182" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="U182" s="39"/>
+      <c r="V182" s="39"/>
+      <c r="W182" s="39"/>
+      <c r="X182" s="39"/>
+      <c r="Y182" s="39"/>
+      <c r="Z182" s="39"/>
+      <c r="AA182" s="39"/>
+      <c r="AB182" s="39"/>
+      <c r="AC182" s="39"/>
+      <c r="AD182" s="43"/>
+      <c r="AE182" s="39"/>
+      <c r="AF182" s="39"/>
+      <c r="AG182" s="39"/>
+      <c r="AH182" s="39"/>
+      <c r="AI182" s="44"/>
+      <c r="AJ182" s="39"/>
+      <c r="AK182" s="39"/>
+      <c r="AL182" s="11"/>
+      <c r="AM182" s="11"/>
+      <c r="AN182" s="14"/>
+      <c r="AO182" s="39" t="n">
+        <v>521</v>
+      </c>
+      <c r="AP182" s="16"/>
+      <c r="AQ182" s="10"/>
+      <c r="AMJ182" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ181"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="597">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1893,6 +1894,12 @@
   </si>
   <si>
     <t xml:space="preserve">Decimal.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136
+137
+138
+146</t>
   </si>
   <si>
     <t xml:space="preserve">LOCAL 5</t>
@@ -2400,53 +2407,53 @@
   </sheetPr>
   <dimension ref="1:182"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F181" activeCellId="0" sqref="F181:F182"/>
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="AP172" activeCellId="0" sqref="AP172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="115.153846153846"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="116.117408906883"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.6032388663968"/>
@@ -16876,7 +16883,9 @@
       <c r="Q171" s="11"/>
       <c r="R171" s="11"/>
       <c r="S171" s="11"/>
-      <c r="T171" s="11"/>
+      <c r="T171" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="U171" s="11"/>
       <c r="V171" s="11"/>
       <c r="W171" s="11"/>
@@ -16948,7 +16957,9 @@
       <c r="Q172" s="11"/>
       <c r="R172" s="11"/>
       <c r="S172" s="11"/>
-      <c r="T172" s="11"/>
+      <c r="T172" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="U172" s="11"/>
       <c r="V172" s="11"/>
       <c r="W172" s="11"/>
@@ -17020,7 +17031,9 @@
       <c r="Q173" s="11"/>
       <c r="R173" s="11"/>
       <c r="S173" s="11"/>
-      <c r="T173" s="11"/>
+      <c r="T173" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="U173" s="11"/>
       <c r="V173" s="11"/>
       <c r="W173" s="11"/>
@@ -17115,7 +17128,7 @@
         <v>159</v>
       </c>
       <c r="AP174" s="17" t="s">
-        <v>466</v>
+        <v>571</v>
       </c>
       <c r="AQ174" s="14"/>
       <c r="AMJ174" s="0"/>
@@ -17134,17 +17147,17 @@
         <v>546</v>
       </c>
       <c r="E175" s="30" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F175" s="30"/>
       <c r="G175" s="30" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J175" s="10" t="s">
         <v>570</v>
@@ -17204,17 +17217,17 @@
         <v>546</v>
       </c>
       <c r="E176" s="30" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="30" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J176" s="10" t="s">
         <v>570</v>
@@ -17224,14 +17237,14 @@
       <c r="M176" s="13"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P176" s="11"/>
       <c r="Q176" s="11"/>
       <c r="R176" s="11"/>
       <c r="S176" s="11"/>
       <c r="T176" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="U176" s="11"/>
       <c r="V176" s="11"/>
@@ -17276,17 +17289,17 @@
         <v>546</v>
       </c>
       <c r="E177" s="30" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F177" s="30"/>
       <c r="G177" s="30" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J177" s="10" t="s">
         <v>560</v>
@@ -17303,14 +17316,14 @@
       <c r="R177" s="11"/>
       <c r="S177" s="11"/>
       <c r="T177" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="U177" s="11"/>
       <c r="V177" s="11"/>
       <c r="W177" s="11"/>
       <c r="X177" s="11"/>
       <c r="Y177" s="36" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Z177" s="11"/>
       <c r="AA177" s="11"/>
@@ -17348,14 +17361,14 @@
         <v>546</v>
       </c>
       <c r="E178" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H178" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I178" s="10" t="s">
         <v>559</v>
@@ -17367,10 +17380,10 @@
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
       <c r="N178" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O178" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P178" s="11"/>
       <c r="Q178" s="11"/>
@@ -17422,14 +17435,14 @@
         <v>546</v>
       </c>
       <c r="E179" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H179" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I179" s="10" t="s">
         <v>559</v>
@@ -17441,10 +17454,10 @@
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
       <c r="N179" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O179" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P179" s="11"/>
       <c r="Q179" s="11"/>
@@ -17496,14 +17509,14 @@
         <v>546</v>
       </c>
       <c r="E180" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>559</v>
@@ -17515,10 +17528,10 @@
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
       <c r="N180" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O180" s="37" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P180" s="11"/>
       <c r="Q180" s="11"/>
@@ -17570,14 +17583,14 @@
         <v>546</v>
       </c>
       <c r="E181" s="30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I181" s="10" t="s">
         <v>559</v>
@@ -17589,10 +17602,10 @@
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
       <c r="N181" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O181" s="37" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P181" s="11"/>
       <c r="Q181" s="11"/>
@@ -17625,7 +17638,7 @@
         <v>166</v>
       </c>
       <c r="AP181" s="38" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AQ181" s="14"/>
       <c r="AMJ181" s="0"/>
@@ -17646,13 +17659,13 @@
       <c r="E182" s="40"/>
       <c r="F182" s="30"/>
       <c r="G182" s="40" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H182" s="40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I182" s="39" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J182" s="39" t="s">
         <v>551</v>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1672,7 +1673,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 door cooler</t>
+    <t xml:space="preserve">1 door cooler - Modern Trade</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -1681,7 +1682,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 30% кока-кола</t>
   </si>
   <si>
-    <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
+    <t xml:space="preserve">Company Coolers: 1st Cash Cooler, 2 door cooler - Modern Trade, Open Front - Modern Trade, Cash Cooler (Open Top) - Modern Trade, Coolers - Counter top, 1.5 door cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
@@ -2001,7 +2002,7 @@
     <numFmt numFmtId="171" formatCode="@"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2042,6 +2043,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2115,7 +2123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2200,6 +2208,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2263,57 +2279,57 @@
   </sheetPr>
   <dimension ref="A1:AQ181"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="T37" activeCellId="0" sqref="T37"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="Z153" activeCellId="0" sqref="Z153:Z154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.2631578947368"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="42.7246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.2307692307692"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="66.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="47.8663967611336"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.5263157894737"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.9716599190283"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.2793522267206"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.09716599190283"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.2672064777328"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7651821862348"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="120.093117408907"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.0080971659919"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.587044534413"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9514170040486"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9554655870445"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="61.4574898785425"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="25.9514170040486"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.6882591093117"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.9109311740891"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="121.14979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.93522267206478"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15142,7 +15158,7 @@
       <c r="Y153" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z153" s="9" t="s">
+      <c r="Z153" s="21" t="s">
         <v>500</v>
       </c>
       <c r="AA153" s="9"/>
@@ -15229,7 +15245,7 @@
       <c r="Y154" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z154" s="9" t="s">
+      <c r="Z154" s="22" t="s">
         <v>503</v>
       </c>
       <c r="AA154" s="9"/>
@@ -15694,10 +15710,10 @@
       <c r="D160" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E160" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="F160" s="21"/>
+      <c r="F160" s="23"/>
       <c r="G160" s="9" t="s">
         <v>519</v>
       </c>
@@ -15713,7 +15729,7 @@
       </c>
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
-      <c r="N160" s="22"/>
+      <c r="N160" s="24"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
@@ -15725,7 +15741,7 @@
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
       <c r="W160" s="9"/>
-      <c r="X160" s="22"/>
+      <c r="X160" s="24"/>
       <c r="Y160" s="8" t="s">
         <v>519</v>
       </c>
@@ -15775,10 +15791,10 @@
       <c r="D161" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="F161" s="21"/>
+      <c r="F161" s="23"/>
       <c r="G161" s="9" t="s">
         <v>521</v>
       </c>
@@ -15814,7 +15830,7 @@
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
       <c r="W161" s="9"/>
-      <c r="X161" s="22"/>
+      <c r="X161" s="24"/>
       <c r="Y161" s="8" t="s">
         <v>519</v>
       </c>
@@ -15860,8 +15876,8 @@
         <v>44</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
       <c r="G162" s="9" t="s">
         <v>526</v>
       </c>
@@ -16267,7 +16283,7 @@
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
       <c r="N167" s="9"/>
-      <c r="O167" s="23" t="s">
+      <c r="O167" s="25" t="s">
         <v>544</v>
       </c>
       <c r="P167" s="9"/>
@@ -16330,14 +16346,14 @@
       <c r="D168" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E168" s="24" t="s">
+      <c r="E168" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24" t="s">
+      <c r="F168" s="26"/>
+      <c r="G168" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="H168" s="24" t="s">
+      <c r="H168" s="26" t="s">
         <v>548</v>
       </c>
       <c r="I168" s="8" t="s">
@@ -16406,7 +16422,7 @@
       <c r="G169" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="H169" s="25" t="s">
+      <c r="H169" s="27" t="s">
         <v>554</v>
       </c>
       <c r="I169" s="8" t="s">
@@ -16419,7 +16435,7 @@
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
       <c r="N169" s="8"/>
-      <c r="O169" s="26"/>
+      <c r="O169" s="28"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
@@ -16468,14 +16484,14 @@
       <c r="D170" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E170" s="24" t="s">
+      <c r="E170" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24" t="s">
+      <c r="F170" s="26"/>
+      <c r="G170" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H170" s="24" t="s">
+      <c r="H170" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I170" s="8" t="s">
@@ -16541,14 +16557,14 @@
       <c r="D171" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E171" s="24" t="s">
+      <c r="E171" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24" t="s">
+      <c r="F171" s="26"/>
+      <c r="G171" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H171" s="24" t="s">
+      <c r="H171" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I171" s="8" t="s">
@@ -16614,14 +16630,14 @@
       <c r="D172" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E172" s="24" t="s">
+      <c r="E172" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24" t="s">
+      <c r="F172" s="26"/>
+      <c r="G172" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H172" s="24" t="s">
+      <c r="H172" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I172" s="8" t="s">
@@ -16687,14 +16703,14 @@
       <c r="D173" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E173" s="24" t="s">
+      <c r="E173" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24" t="s">
+      <c r="F173" s="26"/>
+      <c r="G173" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H173" s="24" t="s">
+      <c r="H173" s="26" t="s">
         <v>528</v>
       </c>
       <c r="I173" s="8" t="s">
@@ -16760,14 +16776,14 @@
       <c r="D174" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E174" s="24" t="s">
+      <c r="E174" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24" t="s">
+      <c r="F174" s="26"/>
+      <c r="G174" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="H174" s="24" t="s">
+      <c r="H174" s="26" t="s">
         <v>567</v>
       </c>
       <c r="I174" s="8" t="s">
@@ -16780,7 +16796,7 @@
       <c r="L174" s="11"/>
       <c r="M174" s="11"/>
       <c r="N174" s="8"/>
-      <c r="O174" s="27"/>
+      <c r="O174" s="29"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
@@ -16829,14 +16845,14 @@
       <c r="D175" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E175" s="24" t="s">
+      <c r="E175" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24" t="s">
+      <c r="F175" s="26"/>
+      <c r="G175" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="H175" s="24" t="s">
+      <c r="H175" s="26" t="s">
         <v>573</v>
       </c>
       <c r="I175" s="8" t="s">
@@ -16898,14 +16914,14 @@
       <c r="D176" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E176" s="24" t="s">
+      <c r="E176" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24" t="s">
+      <c r="F176" s="26"/>
+      <c r="G176" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="H176" s="24" t="s">
+      <c r="H176" s="26" t="s">
         <v>577</v>
       </c>
       <c r="I176" s="8" t="s">
@@ -16969,14 +16985,14 @@
       <c r="D177" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E177" s="24" t="s">
+      <c r="E177" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24" t="s">
+      <c r="F177" s="26"/>
+      <c r="G177" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="H177" s="24" t="s">
+      <c r="H177" s="26" t="s">
         <v>583</v>
       </c>
       <c r="I177" s="8" t="s">
@@ -17040,14 +17056,14 @@
       <c r="D178" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E178" s="24" t="s">
+      <c r="E178" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24" t="s">
+      <c r="F178" s="26"/>
+      <c r="G178" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="H178" s="24" t="s">
+      <c r="H178" s="26" t="s">
         <v>588</v>
       </c>
       <c r="I178" s="8" t="s">
@@ -17113,14 +17129,14 @@
       <c r="D179" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E179" s="24" t="s">
+      <c r="E179" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24" t="s">
+      <c r="F179" s="26"/>
+      <c r="G179" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="H179" s="24" t="s">
+      <c r="H179" s="26" t="s">
         <v>588</v>
       </c>
       <c r="I179" s="8" t="s">
@@ -17135,7 +17151,7 @@
       <c r="N179" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O179" s="28" t="s">
+      <c r="O179" s="30" t="s">
         <v>592</v>
       </c>
       <c r="P179" s="9"/>
@@ -17186,14 +17202,14 @@
       <c r="D180" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E180" s="24" t="s">
+      <c r="E180" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24" t="s">
+      <c r="F180" s="26"/>
+      <c r="G180" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="H180" s="24" t="s">
+      <c r="H180" s="26" t="s">
         <v>588</v>
       </c>
       <c r="I180" s="8" t="s">
@@ -17208,7 +17224,7 @@
       <c r="N180" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O180" s="28" t="s">
+      <c r="O180" s="30" t="s">
         <v>593</v>
       </c>
       <c r="P180" s="9"/>
@@ -17259,12 +17275,12 @@
       <c r="D181" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24" t="s">
+      <c r="E181" s="26"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="H181" s="24" t="s">
+      <c r="H181" s="26" t="s">
         <v>596</v>
       </c>
       <c r="I181" s="8" t="s">
@@ -17276,7 +17292,7 @@
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
       <c r="M181" s="8"/>
-      <c r="N181" s="28"/>
+      <c r="N181" s="30"/>
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
@@ -17294,12 +17310,12 @@
       <c r="AA181" s="8"/>
       <c r="AB181" s="8"/>
       <c r="AC181" s="8"/>
-      <c r="AD181" s="29"/>
+      <c r="AD181" s="31"/>
       <c r="AE181" s="8"/>
       <c r="AF181" s="8"/>
       <c r="AG181" s="8"/>
       <c r="AH181" s="8"/>
-      <c r="AI181" s="30"/>
+      <c r="AI181" s="32"/>
       <c r="AJ181" s="8"/>
       <c r="AK181" s="8"/>
       <c r="AL181" s="9"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">CONV_BIG_REG!$A$1:$AQ$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1044,10 +1045,10 @@
     <t xml:space="preserve">4607174577145</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">NEW SKU 7</t>
@@ -2052,7 +2053,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2063,6 +2064,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -2123,7 +2130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2204,6 +2211,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2265,6 +2280,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2279,53 +2354,53 @@
   </sheetPr>
   <dimension ref="A1:AQ181"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="Z153" activeCellId="0" sqref="Z153:Z154"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G92" activeCellId="0" sqref="G92:AR92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.17813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="82.9109311740891"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="121.14979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="83.6599190283401"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="122.222672064777"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="1" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.8178137651822"/>
@@ -10096,26 +10171,26 @@
         <v>148</v>
       </c>
       <c r="F92" s="9"/>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="10" t="n">
+      <c r="J92" s="8"/>
+      <c r="K92" s="11" t="n">
         <v>1</v>
       </c>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
-      <c r="N92" s="9" t="s">
+      <c r="N92" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="O92" s="12" t="n">
-        <v>111111</v>
+      <c r="O92" s="21" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
@@ -13383,7 +13458,7 @@
         <v>120</v>
       </c>
       <c r="AP131" s="12"/>
-      <c r="AQ131" s="20" t="n">
+      <c r="AQ131" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13468,7 +13543,7 @@
         <v>121</v>
       </c>
       <c r="AP132" s="12"/>
-      <c r="AQ132" s="20" t="n">
+      <c r="AQ132" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13553,7 +13628,7 @@
         <v>122</v>
       </c>
       <c r="AP133" s="12"/>
-      <c r="AQ133" s="20" t="n">
+      <c r="AQ133" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13638,7 +13713,7 @@
         <v>123</v>
       </c>
       <c r="AP134" s="12"/>
-      <c r="AQ134" s="20" t="n">
+      <c r="AQ134" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13723,7 +13798,7 @@
         <v>124</v>
       </c>
       <c r="AP135" s="12"/>
-      <c r="AQ135" s="20" t="n">
+      <c r="AQ135" s="22" t="n">
         <v>119</v>
       </c>
     </row>
@@ -13976,7 +14051,7 @@
         <v>127</v>
       </c>
       <c r="AP138" s="12"/>
-      <c r="AQ138" s="20" t="n">
+      <c r="AQ138" s="22" t="n">
         <v>126</v>
       </c>
     </row>
@@ -14229,7 +14304,7 @@
         <v>130</v>
       </c>
       <c r="AP141" s="12"/>
-      <c r="AQ141" s="20" t="n">
+      <c r="AQ141" s="22" t="n">
         <v>129</v>
       </c>
     </row>
@@ -14314,7 +14389,7 @@
         <v>131</v>
       </c>
       <c r="AP142" s="12"/>
-      <c r="AQ142" s="20" t="n">
+      <c r="AQ142" s="22" t="n">
         <v>129</v>
       </c>
     </row>
@@ -15158,7 +15233,7 @@
       <c r="Y153" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z153" s="21" t="s">
+      <c r="Z153" s="23" t="s">
         <v>500</v>
       </c>
       <c r="AA153" s="9"/>
@@ -15245,7 +15320,7 @@
       <c r="Y154" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="Z154" s="22" t="s">
+      <c r="Z154" s="24" t="s">
         <v>503</v>
       </c>
       <c r="AA154" s="9"/>
@@ -15710,10 +15785,10 @@
       <c r="D160" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F160" s="23"/>
+      <c r="F160" s="25"/>
       <c r="G160" s="9" t="s">
         <v>519</v>
       </c>
@@ -15729,7 +15804,7 @@
       </c>
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
-      <c r="N160" s="24"/>
+      <c r="N160" s="26"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
@@ -15741,7 +15816,7 @@
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
       <c r="W160" s="9"/>
-      <c r="X160" s="24"/>
+      <c r="X160" s="26"/>
       <c r="Y160" s="8" t="s">
         <v>519</v>
       </c>
@@ -15791,10 +15866,10 @@
       <c r="D161" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F161" s="23"/>
+      <c r="F161" s="25"/>
       <c r="G161" s="9" t="s">
         <v>521</v>
       </c>
@@ -15830,7 +15905,7 @@
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
       <c r="W161" s="9"/>
-      <c r="X161" s="24"/>
+      <c r="X161" s="26"/>
       <c r="Y161" s="8" t="s">
         <v>519</v>
       </c>
@@ -15876,8 +15951,8 @@
         <v>44</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
       <c r="G162" s="9" t="s">
         <v>526</v>
       </c>
@@ -16283,7 +16358,7 @@
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
       <c r="N167" s="9"/>
-      <c r="O167" s="25" t="s">
+      <c r="O167" s="27" t="s">
         <v>544</v>
       </c>
       <c r="P167" s="9"/>
@@ -16346,14 +16421,14 @@
       <c r="D168" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26" t="s">
+      <c r="F168" s="28"/>
+      <c r="G168" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="H168" s="26" t="s">
+      <c r="H168" s="28" t="s">
         <v>548</v>
       </c>
       <c r="I168" s="8" t="s">
@@ -16422,7 +16497,7 @@
       <c r="G169" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="H169" s="27" t="s">
+      <c r="H169" s="29" t="s">
         <v>554</v>
       </c>
       <c r="I169" s="8" t="s">
@@ -16435,7 +16510,7 @@
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
       <c r="N169" s="8"/>
-      <c r="O169" s="28"/>
+      <c r="O169" s="30"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
@@ -16484,14 +16559,14 @@
       <c r="D170" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E170" s="26" t="s">
+      <c r="E170" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26" t="s">
+      <c r="F170" s="28"/>
+      <c r="G170" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H170" s="26" t="s">
+      <c r="H170" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I170" s="8" t="s">
@@ -16557,14 +16632,14 @@
       <c r="D171" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26" t="s">
+      <c r="F171" s="28"/>
+      <c r="G171" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H171" s="26" t="s">
+      <c r="H171" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I171" s="8" t="s">
@@ -16630,14 +16705,14 @@
       <c r="D172" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26" t="s">
+      <c r="F172" s="28"/>
+      <c r="G172" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H172" s="26" t="s">
+      <c r="H172" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I172" s="8" t="s">
@@ -16703,14 +16778,14 @@
       <c r="D173" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E173" s="26" t="s">
+      <c r="E173" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26" t="s">
+      <c r="F173" s="28"/>
+      <c r="G173" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="H173" s="26" t="s">
+      <c r="H173" s="28" t="s">
         <v>528</v>
       </c>
       <c r="I173" s="8" t="s">
@@ -16776,14 +16851,14 @@
       <c r="D174" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26" t="s">
+      <c r="F174" s="28"/>
+      <c r="G174" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="H174" s="26" t="s">
+      <c r="H174" s="28" t="s">
         <v>567</v>
       </c>
       <c r="I174" s="8" t="s">
@@ -16796,7 +16871,7 @@
       <c r="L174" s="11"/>
       <c r="M174" s="11"/>
       <c r="N174" s="8"/>
-      <c r="O174" s="29"/>
+      <c r="O174" s="31"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
@@ -16845,14 +16920,14 @@
       <c r="D175" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E175" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26" t="s">
+      <c r="F175" s="28"/>
+      <c r="G175" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="H175" s="26" t="s">
+      <c r="H175" s="28" t="s">
         <v>573</v>
       </c>
       <c r="I175" s="8" t="s">
@@ -16914,14 +16989,14 @@
       <c r="D176" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E176" s="26" t="s">
+      <c r="E176" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26" t="s">
+      <c r="F176" s="28"/>
+      <c r="G176" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="H176" s="26" t="s">
+      <c r="H176" s="28" t="s">
         <v>577</v>
       </c>
       <c r="I176" s="8" t="s">
@@ -16985,14 +17060,14 @@
       <c r="D177" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E177" s="26" t="s">
+      <c r="E177" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26" t="s">
+      <c r="F177" s="28"/>
+      <c r="G177" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="H177" s="26" t="s">
+      <c r="H177" s="28" t="s">
         <v>583</v>
       </c>
       <c r="I177" s="8" t="s">
@@ -17056,14 +17131,14 @@
       <c r="D178" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26" t="s">
+      <c r="F178" s="28"/>
+      <c r="G178" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="H178" s="26" t="s">
+      <c r="H178" s="28" t="s">
         <v>588</v>
       </c>
       <c r="I178" s="8" t="s">
@@ -17129,14 +17204,14 @@
       <c r="D179" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E179" s="26" t="s">
+      <c r="E179" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26" t="s">
+      <c r="F179" s="28"/>
+      <c r="G179" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="H179" s="26" t="s">
+      <c r="H179" s="28" t="s">
         <v>588</v>
       </c>
       <c r="I179" s="8" t="s">
@@ -17151,7 +17226,7 @@
       <c r="N179" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O179" s="30" t="s">
+      <c r="O179" s="32" t="s">
         <v>592</v>
       </c>
       <c r="P179" s="9"/>
@@ -17202,14 +17277,14 @@
       <c r="D180" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26" t="s">
+      <c r="F180" s="28"/>
+      <c r="G180" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="H180" s="26" t="s">
+      <c r="H180" s="28" t="s">
         <v>588</v>
       </c>
       <c r="I180" s="8" t="s">
@@ -17224,7 +17299,7 @@
       <c r="N180" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="O180" s="30" t="s">
+      <c r="O180" s="32" t="s">
         <v>593</v>
       </c>
       <c r="P180" s="9"/>
@@ -17275,12 +17350,12 @@
       <c r="D181" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="E181" s="26"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="26" t="s">
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="H181" s="26" t="s">
+      <c r="H181" s="28" t="s">
         <v>596</v>
       </c>
       <c r="I181" s="8" t="s">
@@ -17292,7 +17367,7 @@
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
       <c r="M181" s="8"/>
-      <c r="N181" s="30"/>
+      <c r="N181" s="32"/>
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
@@ -17310,12 +17385,12 @@
       <c r="AA181" s="8"/>
       <c r="AB181" s="8"/>
       <c r="AC181" s="8"/>
-      <c r="AD181" s="31"/>
+      <c r="AD181" s="33"/>
       <c r="AE181" s="8"/>
       <c r="AF181" s="8"/>
       <c r="AG181" s="8"/>
       <c r="AH181" s="8"/>
-      <c r="AI181" s="32"/>
+      <c r="AI181" s="34"/>
       <c r="AJ181" s="8"/>
       <c r="AK181" s="8"/>
       <c r="AL181" s="9"/>
